--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\PycharmProjects\traveliz\data_utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliyasegev/PycharmProjects/traveliz/data_utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D369A063-D92F-40D9-B1A2-B5BDF3EAF5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="facebook_posts_1" sheetId="1" r:id="rId1"/>
@@ -18,13 +17,20 @@
     <sheet name="facebook_posts_3" sheetId="3" r:id="rId3"/>
     <sheet name="facebook_posts_4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="510">
   <si>
     <t>Post_id</t>
   </si>
@@ -2480,11 +2486,269 @@
   <si>
     <t>יפו</t>
   </si>
+  <si>
+    <t>06.1.2022</t>
+  </si>
+  <si>
+    <t>31.03.2022</t>
+  </si>
+  <si>
+    <t>תל אביב</t>
+  </si>
+  <si>
+    <t>ירושלים</t>
+  </si>
+  <si>
+    <t>עמק החולה</t>
+  </si>
+  <si>
+    <t>21.11.2021</t>
+  </si>
+  <si>
+    <t>24.11.2021</t>
+  </si>
+  <si>
+    <t>פרדס חנה</t>
+  </si>
+  <si>
+    <t>חולתה</t>
+  </si>
+  <si>
+    <t>5.11.2021</t>
+  </si>
+  <si>
+    <t>6.11.2021</t>
+  </si>
+  <si>
+    <t>חיפה?</t>
+  </si>
+  <si>
+    <t>16.11.2021</t>
+  </si>
+  <si>
+    <t>20.11.2021</t>
+  </si>
+  <si>
+    <t>507456020, 522655783</t>
+  </si>
+  <si>
+    <t>חדרה</t>
+  </si>
+  <si>
+    <t>13.12.2021</t>
+  </si>
+  <si>
+    <t>29.12.2021</t>
+  </si>
+  <si>
+    <t>יקנעם</t>
+  </si>
+  <si>
+    <t>25.11.2021</t>
+  </si>
+  <si>
+    <t>11.12.2021</t>
+  </si>
+  <si>
+    <t>שתולה</t>
+  </si>
+  <si>
+    <t>טבעון</t>
+  </si>
+  <si>
+    <t>15.12.2021</t>
+  </si>
+  <si>
+    <t>שדה נחמיה</t>
+  </si>
+  <si>
+    <t>18.11.2021</t>
+  </si>
+  <si>
+    <t>בת ים</t>
+  </si>
+  <si>
+    <t>14.11.2021</t>
+  </si>
+  <si>
+    <t>02.12.2021</t>
+  </si>
+  <si>
+    <t>כמון</t>
+  </si>
+  <si>
+    <t>קרית שמונה</t>
+  </si>
+  <si>
+    <t>15.11.2021</t>
+  </si>
+  <si>
+    <t>נהריה</t>
+  </si>
+  <si>
+    <t>30.11.2021</t>
+  </si>
+  <si>
+    <t>05.12.201</t>
+  </si>
+  <si>
+    <t>שדה אילן</t>
+  </si>
+  <si>
+    <t>22.11.2021</t>
+  </si>
+  <si>
+    <t>29.11.2021</t>
+  </si>
+  <si>
+    <t>חולון</t>
+  </si>
+  <si>
+    <t>24.09.2021</t>
+  </si>
+  <si>
+    <t>31.01.2022</t>
+  </si>
+  <si>
+    <t>הררית</t>
+  </si>
+  <si>
+    <t>19.11.2021</t>
+  </si>
+  <si>
+    <t>אילון</t>
+  </si>
+  <si>
+    <t>533331723, 545688581</t>
+  </si>
+  <si>
+    <t>03.01.2022</t>
+  </si>
+  <si>
+    <t>23.12.2021</t>
+  </si>
+  <si>
+    <t>23.11.2021</t>
+  </si>
+  <si>
+    <t>דפנה</t>
+  </si>
+  <si>
+    <t>כפר אדמה</t>
+  </si>
+  <si>
+    <t>30.09.2021</t>
+  </si>
+  <si>
+    <t>01.03.2022</t>
+  </si>
+  <si>
+    <t>31.12.2021</t>
+  </si>
+  <si>
+    <t>12.11.2021</t>
+  </si>
+  <si>
+    <t>100 d</t>
+  </si>
+  <si>
+    <t>400 d</t>
+  </si>
+  <si>
+    <t>350 d</t>
+  </si>
+  <si>
+    <t>300 d</t>
+  </si>
+  <si>
+    <t>250 d</t>
+  </si>
+  <si>
+    <t>12000 m</t>
+  </si>
+  <si>
+    <t>3300 m</t>
+  </si>
+  <si>
+    <t>350, 490 d</t>
+  </si>
+  <si>
+    <t>150 d</t>
+  </si>
+  <si>
+    <t>1500, 2200 d</t>
+  </si>
+  <si>
+    <t>8750 m</t>
+  </si>
+  <si>
+    <t>5500 m</t>
+  </si>
+  <si>
+    <t>1400 11d</t>
+  </si>
+  <si>
+    <t>2100 m</t>
+  </si>
+  <si>
+    <t>1000 8d</t>
+  </si>
+  <si>
+    <t>2300 m</t>
+  </si>
+  <si>
+    <t>3600 m</t>
+  </si>
+  <si>
+    <t>1500 7d</t>
+  </si>
+  <si>
+    <t>300, 350 d</t>
+  </si>
+  <si>
+    <t>500 3d</t>
+  </si>
+  <si>
+    <t>3700 m</t>
+  </si>
+  <si>
+    <t>קרית טבעון</t>
+  </si>
+  <si>
+    <t>חיפה</t>
+  </si>
+  <si>
+    <t>3000 m</t>
+  </si>
+  <si>
+    <t>3800 m</t>
+  </si>
+  <si>
+    <t>1700 4d</t>
+  </si>
+  <si>
+    <t>06.12.2021</t>
+  </si>
+  <si>
+    <t>09.09.2021</t>
+  </si>
+  <si>
+    <t>12.12.2021</t>
+  </si>
+  <si>
+    <t>04.11.2021</t>
+  </si>
+  <si>
+    <t>06.11.2021</t>
+  </si>
+  <si>
+    <t>200 d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2498,14 +2762,16 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2527,6 +2793,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2565,7 +2837,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2583,13 +2855,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="227581367215772297" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="-5935432621049393351" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="-5935432621049393351" xfId="2"/>
+    <cellStyle name="227581367215772297" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3319,21 +3613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3359,7 +3653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -3372,8 +3666,8 @@
       <c r="D2" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E2" s="4">
-        <v>100</v>
+      <c r="E2" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>423</v>
@@ -3382,10 +3676,10 @@
         <v>544747880</v>
       </c>
       <c r="H2" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -3411,7 +3705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3419,25 +3713,25 @@
         <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>424</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>425</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -3463,7 +3757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3477,10 +3771,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>479</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>427</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>14</v>
@@ -3489,7 +3783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -3503,19 +3797,19 @@
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>427</v>
+      </c>
+      <c r="G7" s="4">
+        <v>539027197</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="210" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -3529,19 +3823,19 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>481</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>428</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3549,25 +3843,25 @@
         <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>429</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>482</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
+      <c r="G9" s="4">
+        <v>524465203</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="270" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -3584,16 +3878,16 @@
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>13</v>
+        <v>431</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>14</v>
+        <v>438</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="255" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -3607,19 +3901,19 @@
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>12</v>
+        <v>483</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="G11" s="4">
+        <v>505290072</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -3627,25 +3921,25 @@
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
+        <v>432</v>
+      </c>
+      <c r="G12" s="4">
+        <v>503847930</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="255" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -3659,19 +3953,19 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>12</v>
+        <v>484</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="G13" s="4">
+        <v>535503661</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -3679,25 +3973,25 @@
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>436</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>12</v>
+        <v>485</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="G14" s="4">
+        <v>544514010</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -3723,7 +4017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -3731,16 +4025,16 @@
         <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>440</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>12</v>
+        <v>486</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>14</v>
@@ -3749,7 +4043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3766,7 +4060,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>14</v>
@@ -3775,7 +4069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -3783,29 +4077,29 @@
         <v>47</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>443</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
+        <v>444</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>12</v>
+        <v>487</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="G18" s="4">
+        <v>543286986</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3827,7 +4121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -3844,16 +4138,16 @@
         <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="195" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="G20" s="4">
+        <v>555613650</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -3861,25 +4155,25 @@
         <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>10</v>
+        <v>447</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="H21" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -3887,16 +4181,16 @@
         <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>10</v>
+        <v>449</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>12</v>
+        <v>487</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>13</v>
+        <v>448</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>14</v>
@@ -3905,7 +4199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="180" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -3922,16 +4216,16 @@
         <v>12</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -3945,19 +4239,19 @@
         <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>12</v>
+        <v>489</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="G24" s="4">
+        <v>505290072</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
@@ -3965,25 +4259,25 @@
         <v>61</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>10</v>
+        <v>451</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -3991,25 +4285,25 @@
         <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>443</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>11</v>
+        <v>452</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="H26" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
@@ -4026,16 +4320,16 @@
         <v>12</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>14</v>
+        <v>453</v>
+      </c>
+      <c r="G27" s="4">
+        <v>537295478</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -4052,16 +4346,16 @@
         <v>12</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>14</v>
+        <v>454</v>
+      </c>
+      <c r="G28" s="4">
+        <v>534301118</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
@@ -4069,25 +4363,25 @@
         <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>10</v>
+        <v>455</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>11</v>
+        <v>447</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>13</v>
+        <v>423</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -4095,16 +4389,16 @@
         <v>71</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>11</v>
+        <v>422</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>13</v>
+        <v>456</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>14</v>
@@ -4113,7 +4407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="409" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -4124,22 +4418,22 @@
         <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>11</v>
+        <v>455</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -4153,7 +4447,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>12</v>
+        <v>491</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>13</v>
@@ -4161,11 +4455,11 @@
       <c r="G32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -4173,25 +4467,25 @@
         <v>77</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>10</v>
+        <v>457</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>11</v>
+        <v>458</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>14</v>
+        <v>459</v>
+      </c>
+      <c r="G33" s="4">
+        <v>528316179</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -4199,25 +4493,25 @@
         <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>13</v>
+        <v>462</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="180" x14ac:dyDescent="0.3">
+      <c r="H34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
@@ -4231,19 +4525,19 @@
         <v>11</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>12</v>
+        <v>493</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>13</v>
+        <v>435</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+      <c r="H35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
@@ -4257,19 +4551,19 @@
         <v>11</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>12</v>
+        <v>489</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="G36" s="4">
+        <v>505290072</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
@@ -4295,7 +4589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -4303,25 +4597,25 @@
         <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>463</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>11</v>
+        <v>464</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="135" x14ac:dyDescent="0.3">
+      <c r="H38" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>88</v>
       </c>
@@ -4338,16 +4632,16 @@
         <v>12</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="G39" s="4">
+        <v>58448876</v>
+      </c>
+      <c r="H39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>90</v>
       </c>
@@ -4355,25 +4649,25 @@
         <v>91</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>10</v>
+        <v>455</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>12</v>
+        <v>486</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="H40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -4399,11 +4693,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4425,7 +4719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
@@ -4442,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>13</v>
+        <v>467</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>14</v>
@@ -4451,7 +4745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="195" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
@@ -4465,19 +4759,19 @@
         <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>12</v>
+        <v>494</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>13</v>
+        <v>435</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>14</v>
+        <v>468</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -4485,25 +4779,25 @@
         <v>99</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>10</v>
+        <v>470</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>11</v>
+        <v>469</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>12</v>
+        <v>495</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>13</v>
+        <v>427</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+      <c r="H45" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
@@ -4511,10 +4805,10 @@
         <v>101</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>10</v>
+        <v>471</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>11</v>
+        <v>457</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>12</v>
@@ -4529,7 +4823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -4546,16 +4840,16 @@
         <v>12</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>13</v>
+        <v>472</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+      <c r="H47" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -4572,7 +4866,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>14</v>
@@ -4581,7 +4875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="195" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
@@ -4595,10 +4889,10 @@
         <v>11</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>12</v>
+        <v>496</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>13</v>
+        <v>473</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>14</v>
@@ -4607,7 +4901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>107</v>
       </c>
@@ -4615,16 +4909,16 @@
         <v>108</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>10</v>
+        <v>429</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>12</v>
+        <v>497</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>13</v>
+        <v>427</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>14</v>
@@ -4633,7 +4927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>109</v>
       </c>
@@ -4641,25 +4935,25 @@
         <v>110</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>10</v>
+        <v>474</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>11</v>
+        <v>475</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="H51" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
@@ -4685,7 +4979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -4704,14 +4998,14 @@
       <c r="F53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>14</v>
+      <c r="G53" s="4">
+        <v>523777810</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>115</v>
       </c>
@@ -4719,16 +5013,16 @@
         <v>116</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>10</v>
+        <v>476</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>11</v>
+        <v>425</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>13</v>
+        <v>423</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>14</v>
@@ -4737,7 +5031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="285" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>117</v>
       </c>
@@ -4751,19 +5045,19 @@
         <v>11</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>12</v>
+        <v>483</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="G55" s="4">
+        <v>505290072</v>
+      </c>
+      <c r="H55" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
@@ -4789,7 +5083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -4815,7 +5109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -4823,25 +5117,25 @@
         <v>124</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>10</v>
+        <v>477</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>11</v>
+        <v>422</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>14</v>
+        <v>427</v>
+      </c>
+      <c r="G58" s="4">
+        <v>543187550</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>125</v>
       </c>
@@ -4858,16 +5152,16 @@
         <v>12</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>14</v>
+        <v>499</v>
+      </c>
+      <c r="G59" s="4">
+        <v>545510966</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>127</v>
       </c>
@@ -4884,16 +5178,16 @@
         <v>12</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>14</v>
+        <v>500</v>
+      </c>
+      <c r="G60" s="4">
+        <v>503200148</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
@@ -4907,19 +5201,19 @@
         <v>11</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>12</v>
+        <v>501</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>14</v>
+        <v>426</v>
+      </c>
+      <c r="G61" s="4">
+        <v>546816048</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="225" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>131</v>
       </c>
@@ -4933,19 +5227,19 @@
         <v>11</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>12</v>
+        <v>502</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="195" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="G62" s="4">
+        <v>505290072</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>133</v>
       </c>
@@ -4953,25 +5247,25 @@
         <v>134</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>10</v>
+        <v>452</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>11</v>
+        <v>504</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>12</v>
+        <v>503</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="G63" s="4">
+        <v>502290056</v>
+      </c>
+      <c r="H63" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -4979,25 +5273,25 @@
         <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>10</v>
+        <v>505</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>11</v>
+        <v>464</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="H64" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>137</v>
       </c>
@@ -5005,25 +5299,25 @@
         <v>138</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>10</v>
+        <v>429</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>11</v>
+        <v>506</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>13</v>
+        <v>423</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="285" x14ac:dyDescent="0.3">
+      <c r="H65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>139</v>
       </c>
@@ -5031,25 +5325,25 @@
         <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>10</v>
+        <v>507</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>11</v>
+        <v>508</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>12</v>
+        <v>509</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>13</v>
+        <v>431</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+      <c r="H66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>141</v>
       </c>
@@ -5063,19 +5357,19 @@
         <v>11</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>12</v>
+        <v>501</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>14</v>
+        <v>426</v>
+      </c>
+      <c r="G67" s="4">
+        <v>546816048</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="135" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
@@ -5083,25 +5377,25 @@
         <v>143</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>11</v>
+        <v>444</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="G68" s="4">
+        <v>50555301</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
@@ -5123,11 +5417,11 @@
       <c r="G69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="H69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>146</v>
       </c>
@@ -5153,7 +5447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>148</v>
       </c>
@@ -5179,7 +5473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>150</v>
       </c>
@@ -5205,7 +5499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="210" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>152</v>
       </c>
@@ -5231,7 +5525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -5257,7 +5551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="409" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>156</v>
       </c>
@@ -5283,7 +5577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>158</v>
       </c>
@@ -5309,7 +5603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>160</v>
       </c>
@@ -5335,7 +5629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="315" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>162</v>
       </c>
@@ -5361,7 +5655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
@@ -5387,7 +5681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>166</v>
       </c>
@@ -5413,7 +5707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>168</v>
       </c>
@@ -5439,7 +5733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>170</v>
       </c>
@@ -5465,7 +5759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>172</v>
       </c>
@@ -5491,7 +5785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="210" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>174</v>
       </c>
@@ -5517,7 +5811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="210" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>176</v>
       </c>
@@ -5543,7 +5837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>178</v>
       </c>
@@ -5569,7 +5863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="195" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>180</v>
       </c>
@@ -5595,7 +5889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>182</v>
       </c>
@@ -5621,7 +5915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="210" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>184</v>
       </c>
@@ -5647,7 +5941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>186</v>
       </c>
@@ -5673,7 +5967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>188</v>
       </c>
@@ -5699,7 +5993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>190</v>
       </c>
@@ -5725,7 +6019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>192</v>
       </c>
@@ -5751,7 +6045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>194</v>
       </c>
@@ -5777,7 +6071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>196</v>
       </c>
@@ -5803,7 +6097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>198</v>
       </c>
@@ -5829,7 +6123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>200</v>
       </c>
@@ -5855,7 +6149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>202</v>
       </c>
@@ -5881,7 +6175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="375" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="400" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>204</v>
       </c>
@@ -5907,7 +6201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>206</v>
       </c>
@@ -5933,7 +6227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>208</v>
       </c>
@@ -5961,63 +6255,73 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D101">
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="end_date">
+  <conditionalFormatting sqref="D2:D44 D46:D101">
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H101">
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="9" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D101">
-    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="D1:D44 D46:D101">
+    <cfRule type="expression" dxfId="42" priority="10" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E101">
-    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="11" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F101">
-    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="12" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G101">
-    <cfRule type="expression" dxfId="37" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="13" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H101">
-    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="14" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="start_date">
+      <formula>NOT(ISERROR(SEARCH("start_date",D45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>ISBLANK(D45)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6025,19 +6329,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6063,7 +6367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>210</v>
       </c>
@@ -6089,7 +6393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>212</v>
       </c>
@@ -6115,7 +6419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>214</v>
       </c>
@@ -6141,7 +6445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>216</v>
       </c>
@@ -6167,7 +6471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="285" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -6193,7 +6497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>220</v>
       </c>
@@ -6219,7 +6523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>222</v>
       </c>
@@ -6245,7 +6549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>224</v>
       </c>
@@ -6271,7 +6575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="285" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>226</v>
       </c>
@@ -6297,7 +6601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="270" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>228</v>
       </c>
@@ -6323,7 +6627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>230</v>
       </c>
@@ -6349,7 +6653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>232</v>
       </c>
@@ -6375,7 +6679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>234</v>
       </c>
@@ -6401,7 +6705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="210" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>236</v>
       </c>
@@ -6427,7 +6731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>237</v>
       </c>
@@ -6453,7 +6757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>239</v>
       </c>
@@ -6479,7 +6783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>240</v>
       </c>
@@ -6505,7 +6809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>242</v>
       </c>
@@ -6531,7 +6835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="409" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>244</v>
       </c>
@@ -6557,7 +6861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>245</v>
       </c>
@@ -6583,7 +6887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>247</v>
       </c>
@@ -6609,7 +6913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="270" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>249</v>
       </c>
@@ -6635,7 +6939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>251</v>
       </c>
@@ -6661,7 +6965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>253</v>
       </c>
@@ -6687,7 +6991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>255</v>
       </c>
@@ -6713,7 +7017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="255" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>257</v>
       </c>
@@ -6739,7 +7043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>259</v>
       </c>
@@ -6765,7 +7069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>261</v>
       </c>
@@ -6791,7 +7095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>263</v>
       </c>
@@ -6817,7 +7121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>264</v>
       </c>
@@ -6843,7 +7147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>266</v>
       </c>
@@ -6869,7 +7173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>268</v>
       </c>
@@ -6895,7 +7199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>269</v>
       </c>
@@ -6921,7 +7225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>271</v>
       </c>
@@ -6947,7 +7251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>273</v>
       </c>
@@ -6973,7 +7277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>274</v>
       </c>
@@ -6999,7 +7303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="210" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>276</v>
       </c>
@@ -7025,7 +7329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>278</v>
       </c>
@@ -7051,7 +7355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="180" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>280</v>
       </c>
@@ -7077,7 +7381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>282</v>
       </c>
@@ -7103,7 +7407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>284</v>
       </c>
@@ -7129,7 +7433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="195" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>286</v>
       </c>
@@ -7155,7 +7459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>288</v>
       </c>
@@ -7181,7 +7485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>290</v>
       </c>
@@ -7207,7 +7511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>292</v>
       </c>
@@ -7233,7 +7537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>294</v>
       </c>
@@ -7259,7 +7563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="285" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>296</v>
       </c>
@@ -7285,7 +7589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="255" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>298</v>
       </c>
@@ -7311,7 +7615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>300</v>
       </c>
@@ -7337,7 +7641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>301</v>
       </c>
@@ -7363,7 +7667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>303</v>
       </c>
@@ -7389,7 +7693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>305</v>
       </c>
@@ -7415,7 +7719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>307</v>
       </c>
@@ -7441,7 +7745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>309</v>
       </c>
@@ -7467,7 +7771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>311</v>
       </c>
@@ -7493,7 +7797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="135" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>313</v>
       </c>
@@ -7519,7 +7823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="135" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>315</v>
       </c>
@@ -7545,7 +7849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="330" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="320" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>317</v>
       </c>
@@ -7571,7 +7875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>319</v>
       </c>
@@ -7597,7 +7901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>321</v>
       </c>
@@ -7621,7 +7925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="195" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>322</v>
       </c>
@@ -7647,7 +7951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="135" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>324</v>
       </c>
@@ -7673,7 +7977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>326</v>
       </c>
@@ -7697,7 +8001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="285" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>327</v>
       </c>
@@ -7723,7 +8027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>329</v>
       </c>
@@ -7749,7 +8053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="180" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>331</v>
       </c>
@@ -7775,7 +8079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>333</v>
       </c>
@@ -7801,7 +8105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>335</v>
       </c>
@@ -7827,7 +8131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>337</v>
       </c>
@@ -7853,7 +8157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>338</v>
       </c>
@@ -7879,7 +8183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>340</v>
       </c>
@@ -7905,7 +8209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="390" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="409" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>342</v>
       </c>
@@ -7931,7 +8235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>344</v>
       </c>
@@ -7957,7 +8261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>346</v>
       </c>
@@ -7983,7 +8287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="180" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>348</v>
       </c>
@@ -8009,7 +8313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>350</v>
       </c>
@@ -8033,7 +8337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="180" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>351</v>
       </c>
@@ -8059,7 +8363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>353</v>
       </c>
@@ -8085,7 +8389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>355</v>
       </c>
@@ -8111,7 +8415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>357</v>
       </c>
@@ -8137,7 +8441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>359</v>
       </c>
@@ -8163,7 +8467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>360</v>
       </c>
@@ -8189,7 +8493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>362</v>
       </c>
@@ -8215,7 +8519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>364</v>
       </c>
@@ -8241,7 +8545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>366</v>
       </c>
@@ -8267,7 +8571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>368</v>
       </c>
@@ -8293,7 +8597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>370</v>
       </c>
@@ -8319,7 +8623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>372</v>
       </c>
@@ -8345,7 +8649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>374</v>
       </c>
@@ -8371,7 +8675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>375</v>
       </c>
@@ -8397,7 +8701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="345" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="352" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>377</v>
       </c>
@@ -8423,7 +8727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>379</v>
       </c>
@@ -8449,7 +8753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="135" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>381</v>
       </c>
@@ -8475,7 +8779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>383</v>
       </c>
@@ -8501,7 +8805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>385</v>
       </c>
@@ -8527,7 +8831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>387</v>
       </c>
@@ -8553,7 +8857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>389</v>
       </c>
@@ -8579,7 +8883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>391</v>
       </c>
@@ -8605,7 +8909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>393</v>
       </c>
@@ -8631,7 +8935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>395</v>
       </c>
@@ -8659,62 +8963,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H101">
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D101">
-    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E101">
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F101">
-    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G101">
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H101">
-    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="12" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8723,19 +9027,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8761,7 +9065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>397</v>
       </c>
@@ -8787,7 +9091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="270" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>399</v>
       </c>
@@ -8813,7 +9117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>401</v>
       </c>
@@ -8839,7 +9143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="210" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>403</v>
       </c>
@@ -8865,7 +9169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>405</v>
       </c>
@@ -8891,7 +9195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>406</v>
       </c>
@@ -8917,7 +9221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>407</v>
       </c>
@@ -8943,7 +9247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="195" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>409</v>
       </c>
@@ -8969,7 +9273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>411</v>
       </c>
@@ -8995,7 +9299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="409" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>413</v>
       </c>
@@ -9021,7 +9325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>415</v>
       </c>
@@ -9047,7 +9351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>417</v>
       </c>
@@ -9073,7 +9377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>419</v>
       </c>
@@ -9101,62 +9405,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H101">
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D101">
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E101">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F101">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G101">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H101">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9165,19 +9469,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9205,62 +9509,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H101">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D101">
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E101">
-    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F101">
-    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G101">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H101">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliyasegev/PycharmProjects/traveliz/data_utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\PycharmProjects\traveliz\data_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9664FEE-574E-460F-B46E-012200F9CC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="facebook_posts_1" sheetId="1" r:id="rId1"/>
@@ -2589,9 +2590,6 @@
     <t>30.11.2021</t>
   </si>
   <si>
-    <t>05.12.201</t>
-  </si>
-  <si>
     <t>שדה אילן</t>
   </si>
   <si>
@@ -2670,15 +2668,9 @@
     <t>3300 m</t>
   </si>
   <si>
-    <t>350, 490 d</t>
-  </si>
-  <si>
     <t>150 d</t>
   </si>
   <si>
-    <t>1500, 2200 d</t>
-  </si>
-  <si>
     <t>8750 m</t>
   </si>
   <si>
@@ -2703,9 +2695,6 @@
     <t>1500 7d</t>
   </si>
   <si>
-    <t>300, 350 d</t>
-  </si>
-  <si>
     <t>500 3d</t>
   </si>
   <si>
@@ -2743,12 +2732,24 @@
   </si>
   <si>
     <t>200 d</t>
+  </si>
+  <si>
+    <t>1500 d, 2200 d</t>
+  </si>
+  <si>
+    <t>300 d, 350 d</t>
+  </si>
+  <si>
+    <t>350 d, 490 d</t>
+  </si>
+  <si>
+    <t>05.12.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2861,29 +2862,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="-5935432621049393351" xfId="2"/>
-    <cellStyle name="227581367215772297" xfId="1"/>
+    <cellStyle name="227581367215772297" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="-5935432621049393351" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3195,6 +3178,24 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3613,21 +3614,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>422</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>423</v>
@@ -3679,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>427</v>
@@ -3783,7 +3784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>427</v>
@@ -3809,7 +3810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>428</v>
@@ -3835,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>430</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -3861,7 +3862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>426</v>
@@ -3913,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>435</v>
@@ -3965,7 +3966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>437</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>426</v>
@@ -3991,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>441</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>439</v>
@@ -4043,7 +4044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>444</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>445</v>
@@ -4095,7 +4096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -4161,7 +4162,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>426</v>
@@ -4173,7 +4174,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>437</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>448</v>
@@ -4199,7 +4200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>426</v>
@@ -4251,7 +4252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>443</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>426</v>
@@ -4277,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>13</v>
@@ -4459,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -4470,13 +4471,13 @@
         <v>457</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="G33" s="4">
         <v>528316179</v>
@@ -4485,7 +4486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -4493,16 +4494,16 @@
         <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>14</v>
@@ -4511,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>435</v>
@@ -4537,7 +4538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>426</v>
@@ -4563,7 +4564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -4597,10 +4598,10 @@
         <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>12</v>
@@ -4615,7 +4616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>88</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G39" s="4">
         <v>58448876</v>
@@ -4641,7 +4642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>90</v>
       </c>
@@ -4652,10 +4653,10 @@
         <v>455</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>426</v>
@@ -4667,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>14</v>
@@ -4745,7 +4746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
@@ -4759,19 +4760,19 @@
         <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>435</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -4779,13 +4780,13 @@
         <v>99</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>427</v>
@@ -4797,7 +4798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>457</v>
@@ -4823,7 +4824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>14</v>
@@ -4849,7 +4850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
@@ -4889,10 +4890,10 @@
         <v>11</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>14</v>
@@ -4901,7 +4902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>107</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>430</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>427</v>
@@ -4927,7 +4928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>109</v>
       </c>
@@ -4935,10 +4936,10 @@
         <v>110</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>12</v>
@@ -4953,7 +4954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>115</v>
       </c>
@@ -5013,13 +5014,13 @@
         <v>116</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>425</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>423</v>
@@ -5031,7 +5032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>117</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>423</v>
@@ -5057,7 +5058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>124</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>422</v>
@@ -5135,7 +5136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>125</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G59" s="4">
         <v>545510966</v>
@@ -5161,7 +5162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>127</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>12</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G60" s="4">
         <v>503200148</v>
@@ -5187,7 +5188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>426</v>
@@ -5213,7 +5214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="225" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>131</v>
       </c>
@@ -5227,7 +5228,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>426</v>
@@ -5239,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>133</v>
       </c>
@@ -5250,10 +5251,10 @@
         <v>452</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>431</v>
@@ -5265,7 +5266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -5273,10 +5274,10 @@
         <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>12</v>
@@ -5291,7 +5292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>137</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>429</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>12</v>
@@ -5317,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>139</v>
       </c>
@@ -5325,13 +5326,13 @@
         <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>431</v>
@@ -5343,7 +5344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>141</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>426</v>
@@ -5369,7 +5370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
@@ -5377,7 +5378,7 @@
         <v>143</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>444</v>
@@ -5395,7 +5396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>146</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>148</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>150</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>152</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>156</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>158</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>160</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="315" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>162</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
@@ -5681,7 +5682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>166</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>168</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>170</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>172</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>174</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>176</v>
       </c>
@@ -5837,7 +5838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>178</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>180</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>182</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>184</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>186</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>188</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>190</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>192</v>
       </c>
@@ -6045,7 +6046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>194</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>196</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>198</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>200</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>202</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="400" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="375" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>204</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>206</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>208</v>
       </c>
@@ -6315,12 +6316,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
       <formula>ISBLANK(D45)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6329,19 +6330,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>210</v>
       </c>
@@ -6393,7 +6394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>212</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>214</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>216</v>
       </c>
@@ -6471,7 +6472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -6497,7 +6498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>220</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>222</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>224</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>226</v>
       </c>
@@ -6601,7 +6602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>228</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>230</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>232</v>
       </c>
@@ -6679,7 +6680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>234</v>
       </c>
@@ -6705,7 +6706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>236</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>237</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>239</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>240</v>
       </c>
@@ -6809,7 +6810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>242</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>244</v>
       </c>
@@ -6861,7 +6862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>245</v>
       </c>
@@ -6887,7 +6888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>247</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>249</v>
       </c>
@@ -6939,7 +6940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>251</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>253</v>
       </c>
@@ -6991,7 +6992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>255</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>257</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>259</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>261</v>
       </c>
@@ -7095,7 +7096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>263</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>264</v>
       </c>
@@ -7147,7 +7148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>266</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>268</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>269</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>271</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>273</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>274</v>
       </c>
@@ -7303,7 +7304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>276</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>278</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>280</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>282</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>284</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>286</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>288</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>290</v>
       </c>
@@ -7511,7 +7512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>292</v>
       </c>
@@ -7537,7 +7538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>294</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>296</v>
       </c>
@@ -7589,7 +7590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>298</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>300</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>301</v>
       </c>
@@ -7667,7 +7668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>303</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>305</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>307</v>
       </c>
@@ -7745,7 +7746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>309</v>
       </c>
@@ -7771,7 +7772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>311</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>313</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>315</v>
       </c>
@@ -7849,7 +7850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="330" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>317</v>
       </c>
@@ -7875,7 +7876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>319</v>
       </c>
@@ -7901,7 +7902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>321</v>
       </c>
@@ -7925,7 +7926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>322</v>
       </c>
@@ -7951,7 +7952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>324</v>
       </c>
@@ -7977,7 +7978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>326</v>
       </c>
@@ -8001,7 +8002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>327</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>329</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>331</v>
       </c>
@@ -8079,7 +8080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>333</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>335</v>
       </c>
@@ -8131,7 +8132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>337</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>338</v>
       </c>
@@ -8183,7 +8184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>340</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="390" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>342</v>
       </c>
@@ -8235,7 +8236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>344</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>346</v>
       </c>
@@ -8287,7 +8288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>348</v>
       </c>
@@ -8313,7 +8314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>350</v>
       </c>
@@ -8337,7 +8338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>351</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>353</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>355</v>
       </c>
@@ -8415,7 +8416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>357</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>359</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>360</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>362</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>364</v>
       </c>
@@ -8545,7 +8546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>366</v>
       </c>
@@ -8571,7 +8572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>368</v>
       </c>
@@ -8597,7 +8598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>370</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>372</v>
       </c>
@@ -8649,7 +8650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>374</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>375</v>
       </c>
@@ -8701,7 +8702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="352" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="345" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>377</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>379</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>381</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>383</v>
       </c>
@@ -8805,7 +8806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>385</v>
       </c>
@@ -8831,7 +8832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>387</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>389</v>
       </c>
@@ -8883,7 +8884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>391</v>
       </c>
@@ -8909,7 +8910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>393</v>
       </c>
@@ -8935,7 +8936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>395</v>
       </c>
@@ -8963,62 +8964,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H101">
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D101">
-    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E101">
-    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F101">
-    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G101">
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H101">
-    <cfRule type="expression" dxfId="26" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9027,19 +9028,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9065,7 +9066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>397</v>
       </c>
@@ -9091,7 +9092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>399</v>
       </c>
@@ -9117,7 +9118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>401</v>
       </c>
@@ -9143,7 +9144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>403</v>
       </c>
@@ -9169,7 +9170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>405</v>
       </c>
@@ -9195,7 +9196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>406</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>407</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>409</v>
       </c>
@@ -9273,7 +9274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>411</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>413</v>
       </c>
@@ -9325,7 +9326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>415</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>417</v>
       </c>
@@ -9377,7 +9378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>419</v>
       </c>
@@ -9405,62 +9406,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H101">
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D101">
-    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E101">
-    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F101">
-    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G101">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H101">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9469,19 +9470,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9509,62 +9510,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H101">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D101">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E101">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F101">
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G101">
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H101">
-    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliyasegev/PycharmProjects/traveliz/data_utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avishaya\PycharmProjects\traveliz\data_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035CC488-B495-4AC1-BC97-4EE90BD6112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="-57720" yWindow="-3795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="facebook_posts_1" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="511">
   <si>
     <t>Post_id</t>
   </si>
@@ -2670,9 +2671,6 @@
     <t>3300 m</t>
   </si>
   <si>
-    <t>350, 490 d</t>
-  </si>
-  <si>
     <t>150 d</t>
   </si>
   <si>
@@ -2703,9 +2701,6 @@
     <t>1500 7d</t>
   </si>
   <si>
-    <t>300, 350 d</t>
-  </si>
-  <si>
     <t>500 3d</t>
   </si>
   <si>
@@ -2743,12 +2738,21 @@
   </si>
   <si>
     <t>200 d</t>
+  </si>
+  <si>
+    <t>350 p, 490 d</t>
+  </si>
+  <si>
+    <t>1500 d, 2200 d</t>
+  </si>
+  <si>
+    <t>300 2d, 350 d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2861,29 +2865,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="-5935432621049393351" xfId="2"/>
-    <cellStyle name="227581367215772297" xfId="1"/>
+    <cellStyle name="227581367215772297" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="-5935432621049393351" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3195,6 +3181,24 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3613,21 +3617,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -3705,7 +3709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -3757,7 +3761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -3809,7 +3813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3861,7 +3865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>437</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>426</v>
@@ -3991,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -4017,7 +4021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -4031,7 +4035,7 @@
         <v>441</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>439</v>
@@ -4043,7 +4047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -4069,7 +4073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>444</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>445</v>
@@ -4092,10 +4096,10 @@
         <v>543286986</v>
       </c>
       <c r="H18" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -4161,7 +4165,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>426</v>
@@ -4173,7 +4177,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -4187,7 +4191,7 @@
         <v>437</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>448</v>
@@ -4195,11 +4199,11 @@
       <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+      <c r="H22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -4225,7 +4229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -4239,7 +4243,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>426</v>
@@ -4251,7 +4255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
@@ -4265,7 +4269,7 @@
         <v>443</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>426</v>
@@ -4277,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -4300,10 +4304,10 @@
         <v>14</v>
       </c>
       <c r="H26" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
@@ -4325,11 +4329,11 @@
       <c r="G27" s="4">
         <v>537295478</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -4407,7 +4411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -4430,10 +4434,10 @@
         <v>14</v>
       </c>
       <c r="H31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -4447,7 +4451,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>13</v>
@@ -4459,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>461</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>462</v>
@@ -4511,7 +4515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>435</v>
@@ -4537,7 +4541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
@@ -4551,7 +4555,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>426</v>
@@ -4563,7 +4567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>88</v>
       </c>
@@ -4638,10 +4642,10 @@
         <v>58448876</v>
       </c>
       <c r="H39" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>90</v>
       </c>
@@ -4655,7 +4659,7 @@
         <v>466</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>426</v>
@@ -4667,7 +4671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>435</v>
@@ -4771,7 +4775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -4785,7 +4789,7 @@
         <v>469</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>427</v>
@@ -4797,7 +4801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -4849,7 +4853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -4875,7 +4879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
@@ -4889,7 +4893,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>473</v>
@@ -4901,7 +4905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>107</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>430</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>427</v>
@@ -4927,7 +4931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>109</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -5005,7 +5009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>115</v>
       </c>
@@ -5019,7 +5023,7 @@
         <v>425</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>423</v>
@@ -5031,7 +5035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>117</v>
       </c>
@@ -5057,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
@@ -5079,11 +5083,11 @@
       <c r="G56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -5135,7 +5139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>125</v>
       </c>
@@ -5152,16 +5156,16 @@
         <v>12</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G59" s="4">
         <v>545510966</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="H59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>127</v>
       </c>
@@ -5178,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G60" s="4">
         <v>503200148</v>
@@ -5187,7 +5191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
@@ -5201,7 +5205,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>426</v>
@@ -5213,7 +5217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="225" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>131</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>426</v>
@@ -5239,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>133</v>
       </c>
@@ -5250,10 +5254,10 @@
         <v>452</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>431</v>
@@ -5262,10 +5266,10 @@
         <v>502290056</v>
       </c>
       <c r="H63" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -5273,7 +5277,7 @@
         <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>464</v>
@@ -5291,7 +5295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>137</v>
       </c>
@@ -5302,7 +5306,7 @@
         <v>429</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>12</v>
@@ -5317,7 +5321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>139</v>
       </c>
@@ -5325,13 +5329,13 @@
         <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>431</v>
@@ -5343,7 +5347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>141</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>426</v>
@@ -5369,7 +5373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
@@ -5395,7 +5399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
@@ -5418,10 +5422,10 @@
         <v>14</v>
       </c>
       <c r="H69" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>146</v>
       </c>
@@ -5447,7 +5451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>148</v>
       </c>
@@ -5473,7 +5477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>150</v>
       </c>
@@ -5499,7 +5503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>152</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>156</v>
       </c>
@@ -5577,7 +5581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>158</v>
       </c>
@@ -5603,7 +5607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>160</v>
       </c>
@@ -5629,7 +5633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="315" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>162</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>166</v>
       </c>
@@ -5707,7 +5711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>168</v>
       </c>
@@ -5733,7 +5737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>170</v>
       </c>
@@ -5759,7 +5763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>172</v>
       </c>
@@ -5785,7 +5789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>174</v>
       </c>
@@ -5811,7 +5815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>176</v>
       </c>
@@ -5837,7 +5841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>178</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>180</v>
       </c>
@@ -5889,7 +5893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>182</v>
       </c>
@@ -5915,7 +5919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>184</v>
       </c>
@@ -5941,7 +5945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>186</v>
       </c>
@@ -5967,7 +5971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>188</v>
       </c>
@@ -5993,7 +5997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>190</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>192</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>194</v>
       </c>
@@ -6071,7 +6075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>196</v>
       </c>
@@ -6097,7 +6101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>198</v>
       </c>
@@ -6123,7 +6127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>200</v>
       </c>
@@ -6149,7 +6153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>202</v>
       </c>
@@ -6175,7 +6179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="400" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="375" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>204</v>
       </c>
@@ -6201,7 +6205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>206</v>
       </c>
@@ -6227,7 +6231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>208</v>
       </c>
@@ -6315,12 +6319,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
       <formula>ISBLANK(D45)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6329,19 +6333,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6367,7 +6371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>210</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>212</v>
       </c>
@@ -6419,7 +6423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>214</v>
       </c>
@@ -6445,7 +6449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>216</v>
       </c>
@@ -6471,7 +6475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -6497,7 +6501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>220</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>222</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>224</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>226</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>228</v>
       </c>
@@ -6627,7 +6631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>230</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>232</v>
       </c>
@@ -6679,7 +6683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>234</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>236</v>
       </c>
@@ -6731,7 +6735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>237</v>
       </c>
@@ -6757,7 +6761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>239</v>
       </c>
@@ -6783,7 +6787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>240</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>242</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>244</v>
       </c>
@@ -6861,7 +6865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>245</v>
       </c>
@@ -6887,7 +6891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>247</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>249</v>
       </c>
@@ -6939,7 +6943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>251</v>
       </c>
@@ -6965,7 +6969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>253</v>
       </c>
@@ -6991,7 +6995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>255</v>
       </c>
@@ -7017,7 +7021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>257</v>
       </c>
@@ -7043,7 +7047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>259</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>261</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>263</v>
       </c>
@@ -7121,7 +7125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>264</v>
       </c>
@@ -7147,7 +7151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>266</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>268</v>
       </c>
@@ -7199,7 +7203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>269</v>
       </c>
@@ -7225,7 +7229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>271</v>
       </c>
@@ -7251,7 +7255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>273</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>274</v>
       </c>
@@ -7303,7 +7307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>276</v>
       </c>
@@ -7329,7 +7333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>278</v>
       </c>
@@ -7355,7 +7359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>280</v>
       </c>
@@ -7381,7 +7385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>282</v>
       </c>
@@ -7407,7 +7411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>284</v>
       </c>
@@ -7433,7 +7437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>286</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>288</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>290</v>
       </c>
@@ -7511,7 +7515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>292</v>
       </c>
@@ -7537,7 +7541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>294</v>
       </c>
@@ -7563,7 +7567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>296</v>
       </c>
@@ -7589,7 +7593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>298</v>
       </c>
@@ -7615,7 +7619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>300</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>301</v>
       </c>
@@ -7667,7 +7671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>303</v>
       </c>
@@ -7693,7 +7697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>305</v>
       </c>
@@ -7719,7 +7723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>307</v>
       </c>
@@ -7745,7 +7749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>309</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>311</v>
       </c>
@@ -7797,7 +7801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>313</v>
       </c>
@@ -7823,7 +7827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>315</v>
       </c>
@@ -7849,7 +7853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="330" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>317</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>319</v>
       </c>
@@ -7901,7 +7905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>321</v>
       </c>
@@ -7925,7 +7929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>322</v>
       </c>
@@ -7951,7 +7955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>324</v>
       </c>
@@ -7977,7 +7981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>326</v>
       </c>
@@ -8001,7 +8005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>327</v>
       </c>
@@ -8027,7 +8031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>329</v>
       </c>
@@ -8053,7 +8057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>331</v>
       </c>
@@ -8079,7 +8083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>333</v>
       </c>
@@ -8105,7 +8109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>335</v>
       </c>
@@ -8131,7 +8135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>337</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>338</v>
       </c>
@@ -8183,7 +8187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>340</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="390" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>342</v>
       </c>
@@ -8235,7 +8239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>344</v>
       </c>
@@ -8261,7 +8265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>346</v>
       </c>
@@ -8287,7 +8291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>348</v>
       </c>
@@ -8313,7 +8317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>350</v>
       </c>
@@ -8337,7 +8341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>351</v>
       </c>
@@ -8363,7 +8367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>353</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>355</v>
       </c>
@@ -8415,7 +8419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>357</v>
       </c>
@@ -8441,7 +8445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>359</v>
       </c>
@@ -8467,7 +8471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>360</v>
       </c>
@@ -8493,7 +8497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>362</v>
       </c>
@@ -8519,7 +8523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>364</v>
       </c>
@@ -8545,7 +8549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>366</v>
       </c>
@@ -8571,7 +8575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>368</v>
       </c>
@@ -8597,7 +8601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>370</v>
       </c>
@@ -8623,7 +8627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>372</v>
       </c>
@@ -8649,7 +8653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>374</v>
       </c>
@@ -8675,7 +8679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>375</v>
       </c>
@@ -8701,7 +8705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="352" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="345" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>377</v>
       </c>
@@ -8727,7 +8731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>379</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>381</v>
       </c>
@@ -8779,7 +8783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>383</v>
       </c>
@@ -8805,7 +8809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>385</v>
       </c>
@@ -8831,7 +8835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>387</v>
       </c>
@@ -8857,7 +8861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>389</v>
       </c>
@@ -8883,7 +8887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>391</v>
       </c>
@@ -8909,7 +8913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>393</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>395</v>
       </c>
@@ -8963,62 +8967,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H101">
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D101">
-    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E101">
-    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F101">
-    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G101">
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H101">
-    <cfRule type="expression" dxfId="26" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9027,19 +9031,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9065,7 +9069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>397</v>
       </c>
@@ -9091,7 +9095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>399</v>
       </c>
@@ -9117,7 +9121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>401</v>
       </c>
@@ -9143,7 +9147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>403</v>
       </c>
@@ -9169,7 +9173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>405</v>
       </c>
@@ -9195,7 +9199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>406</v>
       </c>
@@ -9221,7 +9225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>407</v>
       </c>
@@ -9247,7 +9251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>409</v>
       </c>
@@ -9273,7 +9277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>411</v>
       </c>
@@ -9299,7 +9303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>413</v>
       </c>
@@ -9325,7 +9329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>415</v>
       </c>
@@ -9351,7 +9355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>417</v>
       </c>
@@ -9377,7 +9381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>419</v>
       </c>
@@ -9405,62 +9409,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H101">
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D101">
-    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E101">
-    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F101">
-    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G101">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H101">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9469,19 +9473,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9509,62 +9513,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D101">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H101">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D101">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E101">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F101">
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G101">
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H101">
-    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avishaya\PycharmProjects\traveliz\data_utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\PycharmProjects\traveliz\data_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035CC488-B495-4AC1-BC97-4EE90BD6112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217CB18D-672E-40EE-AD3E-0C4688B83B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-3795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="facebook_posts_1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="510">
   <si>
     <t>Post_id</t>
   </si>
@@ -2590,9 +2590,6 @@
     <t>30.11.2021</t>
   </si>
   <si>
-    <t>05.12.201</t>
-  </si>
-  <si>
     <t>שדה אילן</t>
   </si>
   <si>
@@ -2674,9 +2671,6 @@
     <t>150 d</t>
   </si>
   <si>
-    <t>1500, 2200 d</t>
-  </si>
-  <si>
     <t>8750 m</t>
   </si>
   <si>
@@ -2747,6 +2741,9 @@
   </si>
   <si>
     <t>300 2d, 350 d</t>
+  </si>
+  <si>
+    <t>05.12.2021</t>
   </si>
 </sst>
 </file>
@@ -3620,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3671,7 +3668,7 @@
         <v>422</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>423</v>
@@ -3775,7 +3772,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>427</v>
@@ -3801,7 +3798,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>427</v>
@@ -3827,7 +3824,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>428</v>
@@ -3853,7 +3850,7 @@
         <v>430</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -3905,7 +3902,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>426</v>
@@ -3957,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>435</v>
@@ -3983,7 +3980,7 @@
         <v>437</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>426</v>
@@ -4035,7 +4032,7 @@
         <v>441</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>439</v>
@@ -4087,7 +4084,7 @@
         <v>444</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>445</v>
@@ -4165,7 +4162,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>426</v>
@@ -4191,7 +4188,7 @@
         <v>437</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>448</v>
@@ -4243,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>426</v>
@@ -4269,7 +4266,7 @@
         <v>443</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>426</v>
@@ -4451,7 +4448,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>13</v>
@@ -4474,13 +4471,13 @@
         <v>457</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="G33" s="4">
         <v>528316179</v>
@@ -4497,16 +4494,16 @@
         <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>14</v>
@@ -4529,7 +4526,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>435</v>
@@ -4555,7 +4552,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>426</v>
@@ -4601,10 +4598,10 @@
         <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>12</v>
@@ -4636,7 +4633,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G39" s="4">
         <v>58448876</v>
@@ -4656,10 +4653,10 @@
         <v>455</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>426</v>
@@ -4740,7 +4737,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>14</v>
@@ -4763,13 +4760,13 @@
         <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>435</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>15</v>
@@ -4783,13 +4780,13 @@
         <v>99</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>427</v>
@@ -4809,7 +4806,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>457</v>
@@ -4844,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>14</v>
@@ -4893,10 +4890,10 @@
         <v>11</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>14</v>
@@ -4919,7 +4916,7 @@
         <v>430</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>427</v>
@@ -4939,10 +4936,10 @@
         <v>110</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>12</v>
@@ -5017,13 +5014,13 @@
         <v>116</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>425</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>423</v>
@@ -5049,7 +5046,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>423</v>
@@ -5121,7 +5118,7 @@
         <v>124</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>422</v>
@@ -5156,7 +5153,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G59" s="4">
         <v>545510966</v>
@@ -5182,7 +5179,7 @@
         <v>12</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G60" s="4">
         <v>503200148</v>
@@ -5205,7 +5202,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>426</v>
@@ -5231,7 +5228,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>426</v>
@@ -5254,10 +5251,10 @@
         <v>452</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>431</v>
@@ -5277,10 +5274,10 @@
         <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>12</v>
@@ -5306,7 +5303,7 @@
         <v>429</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>12</v>
@@ -5329,13 +5326,13 @@
         <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>431</v>
@@ -5361,7 +5358,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>426</v>
@@ -5381,7 +5378,7 @@
         <v>143</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>444</v>

--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliyasegev/PycharmProjects/traveliz/data_utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avishaya\PycharmProjects\traveliz\data_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5338BFB4-0F7D-4BFD-8394-621A3FC59F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="28500" windowHeight="16280"/>
+    <workbookView xWindow="-57720" yWindow="-3795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="facebook" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="516">
   <si>
     <t>Post_id</t>
   </si>
@@ -2796,11 +2796,17 @@
 המון טבע מסביב.....
 https://www.facebook.com/476757013074004/posts/1040673753348991/</t>
   </si>
+  <si>
+    <t>None s</t>
+  </si>
+  <si>
+    <t>4 s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2939,12 +2945,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="-3451930801534778880" xfId="1"/>
-    <cellStyle name="-5935432621049393351" xfId="6"/>
-    <cellStyle name="-6133241657024543279" xfId="4"/>
-    <cellStyle name="-729664007974769509" xfId="2"/>
-    <cellStyle name="-918871240910345814" xfId="3"/>
-    <cellStyle name="227581367215772297" xfId="5"/>
+    <cellStyle name="227581367215772297" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="-3451930801534778880" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="-5935432621049393351" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="-6133241657024543279" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="-729664007974769509" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="-918871240910345814" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
@@ -3400,77 +3406,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3760,21 +3701,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3800,7 +3741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -3822,11 +3763,11 @@
       <c r="G2" s="6">
         <v>544747880</v>
       </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H2" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -3852,7 +3793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -3878,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -3904,7 +3845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -3930,7 +3871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -3956,7 +3897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -3982,7 +3923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -4008,7 +3949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -4034,7 +3975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -4060,7 +4001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -4086,7 +4027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -4112,7 +4053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -4138,7 +4079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -4164,7 +4105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -4190,7 +4131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -4216,7 +4157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -4242,7 +4183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -4268,7 +4209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -4294,7 +4235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
@@ -4320,7 +4261,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -4346,7 +4287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -4372,7 +4313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -4398,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -4420,11 +4361,11 @@
       <c r="G25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H25" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
@@ -4450,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -4476,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -4502,7 +4443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -4528,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -4554,7 +4495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="403" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="403.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -4580,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -4606,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
@@ -4632,7 +4573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
@@ -4658,7 +4599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
@@ -4684,7 +4625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>54</v>
       </c>
@@ -4710,7 +4651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>55</v>
       </c>
@@ -4736,7 +4677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>56</v>
       </c>
@@ -4762,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
@@ -4788,7 +4729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>58</v>
       </c>
@@ -4814,7 +4755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>59</v>
       </c>
@@ -4840,7 +4781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4866,7 +4807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>61</v>
       </c>
@@ -4892,7 +4833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>63</v>
       </c>
@@ -4918,7 +4859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>64</v>
       </c>
@@ -4944,7 +4885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>65</v>
       </c>
@@ -4970,7 +4911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>66</v>
       </c>
@@ -4996,7 +4937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>67</v>
       </c>
@@ -5022,7 +4963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>68</v>
       </c>
@@ -5048,7 +4989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>69</v>
       </c>
@@ -5074,7 +5015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>70</v>
       </c>
@@ -5100,7 +5041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>71</v>
       </c>
@@ -5126,7 +5067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>73</v>
       </c>
@@ -5152,7 +5093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>75</v>
       </c>
@@ -5178,7 +5119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>77</v>
       </c>
@@ -5204,7 +5145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>78</v>
       </c>
@@ -5230,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>79</v>
       </c>
@@ -5256,7 +5197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>80</v>
       </c>
@@ -5282,7 +5223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>81</v>
       </c>
@@ -5308,7 +5249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>82</v>
       </c>
@@ -5334,7 +5275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>83</v>
       </c>
@@ -5360,7 +5301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="225" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>84</v>
       </c>
@@ -5386,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>85</v>
       </c>
@@ -5412,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>86</v>
       </c>
@@ -5438,7 +5379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="172" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="172.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>87</v>
       </c>
@@ -5464,7 +5405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>88</v>
       </c>
@@ -5490,7 +5431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>89</v>
       </c>
@@ -5516,7 +5457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>90</v>
       </c>
@@ -5542,7 +5483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>91</v>
       </c>
@@ -5568,7 +5509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
@@ -5594,7 +5535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>94</v>
       </c>
@@ -5620,7 +5561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="400" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>96</v>
       </c>
@@ -5646,7 +5587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
@@ -5672,7 +5613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>100</v>
       </c>
@@ -5698,7 +5639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>102</v>
       </c>
@@ -5724,7 +5665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>104</v>
       </c>
@@ -5750,7 +5691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>106</v>
       </c>
@@ -5776,7 +5717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>108</v>
       </c>
@@ -5802,7 +5743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>110</v>
       </c>
@@ -5828,7 +5769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>112</v>
       </c>
@@ -5854,7 +5795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>114</v>
       </c>
@@ -5880,7 +5821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>116</v>
       </c>
@@ -5906,7 +5847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>118</v>
       </c>
@@ -5932,7 +5873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
@@ -5958,7 +5899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>122</v>
       </c>
@@ -5984,7 +5925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>124</v>
       </c>
@@ -6010,7 +5951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>126</v>
       </c>
@@ -6036,7 +5977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>128</v>
       </c>
@@ -6062,7 +6003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>130</v>
       </c>
@@ -6088,7 +6029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>132</v>
       </c>
@@ -6114,7 +6055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>134</v>
       </c>
@@ -6140,7 +6081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>136</v>
       </c>
@@ -6166,7 +6107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>138</v>
       </c>
@@ -6192,7 +6133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>140</v>
       </c>
@@ -6218,7 +6159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>142</v>
       </c>
@@ -6244,7 +6185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>144</v>
       </c>
@@ -6270,7 +6211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="384" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>146</v>
       </c>
@@ -6296,7 +6237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>148</v>
       </c>
@@ -6322,7 +6263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="375" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>150</v>
       </c>
@@ -6348,7 +6289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>152</v>
       </c>
@@ -6374,7 +6315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>154</v>
       </c>
@@ -6400,7 +6341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>156</v>
       </c>
@@ -6426,7 +6367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>158</v>
       </c>
@@ -6452,7 +6393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>160</v>
       </c>
@@ -6478,7 +6419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>162</v>
       </c>
@@ -6504,7 +6445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>164</v>
       </c>
@@ -6530,7 +6471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>166</v>
       </c>
@@ -6556,7 +6497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>168</v>
       </c>
@@ -6582,7 +6523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>170</v>
       </c>
@@ -6608,7 +6549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="336" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>172</v>
       </c>
@@ -6634,7 +6575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>174</v>
       </c>
@@ -6660,7 +6601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>176</v>
       </c>
@@ -6686,7 +6627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>178</v>
       </c>
@@ -6712,7 +6653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>180</v>
       </c>
@@ -6738,7 +6679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>182</v>
       </c>
@@ -6764,7 +6705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>183</v>
       </c>
@@ -6790,7 +6731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>185</v>
       </c>
@@ -6816,7 +6757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>186</v>
       </c>
@@ -6842,7 +6783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>188</v>
       </c>
@@ -6868,7 +6809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>190</v>
       </c>
@@ -6894,7 +6835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>191</v>
       </c>
@@ -6920,7 +6861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>193</v>
       </c>
@@ -6946,7 +6887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>195</v>
       </c>
@@ -6972,7 +6913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>197</v>
       </c>
@@ -6998,7 +6939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="336" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>199</v>
       </c>
@@ -7024,7 +6965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>201</v>
       </c>
@@ -7050,7 +6991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>203</v>
       </c>
@@ -7076,7 +7017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>205</v>
       </c>
@@ -7102,7 +7043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>207</v>
       </c>
@@ -7128,7 +7069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>209</v>
       </c>
@@ -7154,7 +7095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>210</v>
       </c>
@@ -7180,7 +7121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>212</v>
       </c>
@@ -7206,7 +7147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>214</v>
       </c>
@@ -7232,7 +7173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>215</v>
       </c>
@@ -7258,7 +7199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>217</v>
       </c>
@@ -7284,7 +7225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>219</v>
       </c>
@@ -7310,7 +7251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="336" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>220</v>
       </c>
@@ -7336,7 +7277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>222</v>
       </c>
@@ -7362,7 +7303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>224</v>
       </c>
@@ -7388,7 +7329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>226</v>
       </c>
@@ -7414,7 +7355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>228</v>
       </c>
@@ -7440,7 +7381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>230</v>
       </c>
@@ -7466,7 +7407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>232</v>
       </c>
@@ -7492,7 +7433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>234</v>
       </c>
@@ -7518,7 +7459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>236</v>
       </c>
@@ -7544,7 +7485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>238</v>
       </c>
@@ -7570,7 +7511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>240</v>
       </c>
@@ -7596,7 +7537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>242</v>
       </c>
@@ -7622,7 +7563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="352" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="255" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>244</v>
       </c>
@@ -7648,7 +7589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>246</v>
       </c>
@@ -7674,7 +7615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>247</v>
       </c>
@@ -7700,7 +7641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>249</v>
       </c>
@@ -7726,7 +7667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>251</v>
       </c>
@@ -7752,7 +7693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>253</v>
       </c>
@@ -7778,7 +7719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>255</v>
       </c>
@@ -7804,7 +7745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>257</v>
       </c>
@@ -7830,7 +7771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="400" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>259</v>
       </c>
@@ -7856,7 +7797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>261</v>
       </c>
@@ -7882,7 +7823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="330" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>263</v>
       </c>
@@ -7908,7 +7849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>265</v>
       </c>
@@ -7934,7 +7875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>267</v>
       </c>
@@ -7958,7 +7899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>268</v>
       </c>
@@ -7984,7 +7925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>270</v>
       </c>
@@ -8010,7 +7951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>272</v>
       </c>
@@ -8034,7 +7975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>273</v>
       </c>
@@ -8060,7 +8001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>275</v>
       </c>
@@ -8086,7 +8027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>277</v>
       </c>
@@ -8112,7 +8053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>279</v>
       </c>
@@ -8138,7 +8079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>281</v>
       </c>
@@ -8164,7 +8105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>283</v>
       </c>
@@ -8190,7 +8131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>284</v>
       </c>
@@ -8216,7 +8157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>286</v>
       </c>
@@ -8242,7 +8183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="390" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>288</v>
       </c>
@@ -8268,7 +8209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>290</v>
       </c>
@@ -8294,7 +8235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>292</v>
       </c>
@@ -8320,7 +8261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>294</v>
       </c>
@@ -8346,7 +8287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>296</v>
       </c>
@@ -8370,7 +8311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>297</v>
       </c>
@@ -8396,7 +8337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>299</v>
       </c>
@@ -8422,7 +8363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>301</v>
       </c>
@@ -8448,7 +8389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>303</v>
       </c>
@@ -8474,7 +8415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>305</v>
       </c>
@@ -8500,7 +8441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>306</v>
       </c>
@@ -8526,7 +8467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>308</v>
       </c>
@@ -8552,7 +8493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>310</v>
       </c>
@@ -8578,7 +8519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>312</v>
       </c>
@@ -8604,7 +8545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="384" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>314</v>
       </c>
@@ -8630,7 +8571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="384" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>316</v>
       </c>
@@ -8656,7 +8597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>318</v>
       </c>
@@ -8682,7 +8623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>320</v>
       </c>
@@ -8708,7 +8649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>321</v>
       </c>
@@ -8734,7 +8675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="345" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>323</v>
       </c>
@@ -8760,7 +8701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>325</v>
       </c>
@@ -8786,7 +8727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="400" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="135" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>327</v>
       </c>
@@ -8812,7 +8753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>329</v>
       </c>
@@ -8838,7 +8779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>331</v>
       </c>
@@ -8864,7 +8805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>333</v>
       </c>
@@ -8890,7 +8831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>335</v>
       </c>
@@ -8916,7 +8857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>337</v>
       </c>
@@ -8942,7 +8883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>339</v>
       </c>
@@ -8968,7 +8909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>341</v>
       </c>
@@ -8994,7 +8935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="105" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>343</v>
       </c>
@@ -9020,7 +8961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="270" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>345</v>
       </c>
@@ -9046,7 +8987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>347</v>
       </c>
@@ -9072,7 +9013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="210" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>349</v>
       </c>
@@ -9098,7 +9039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>351</v>
       </c>
@@ -9124,7 +9065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>352</v>
       </c>
@@ -9150,7 +9091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>353</v>
       </c>
@@ -9176,7 +9117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="195" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>355</v>
       </c>
@@ -9202,7 +9143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>357</v>
       </c>
@@ -9228,7 +9169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>359</v>
       </c>
@@ -9254,7 +9195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>361</v>
       </c>
@@ -9280,7 +9221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>363</v>
       </c>
@@ -9306,7 +9247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="240" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>365</v>
       </c>

--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\PycharmProjects\traveliz\data_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02419FA-F085-43F7-91BF-A88D2894BCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CEBBFD-922A-4D34-AA9F-15D26450EE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="654">
   <si>
     <t>Post_id</t>
   </si>
@@ -196,7 +196,7 @@
     <t>24.11.2021</t>
   </si>
   <si>
-    <t>250 d</t>
+    <t>100 d, 250 d</t>
   </si>
   <si>
     <t>2789596211337687</t>
@@ -469,6 +469,9 @@
     <t>18.11.2021</t>
   </si>
   <si>
+    <t>1500 d</t>
+  </si>
+  <si>
     <t>שדה נחמיה</t>
   </si>
   <si>
@@ -2736,11 +2739,12 @@
 פרטים בפרטי או במספר- 0526331353</t>
   </si>
   <si>
-    <t>Group_name/Post_date</t>
+    <t>Group_name/Post_date/Post_phone</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-07</t>
+2021-10-07
+ 50-435-5101</t>
   </si>
   <si>
     <t>חברה טובה ובן זוגה
@@ -2748,13 +2752,24 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-08</t>
+2021-10-08
+ 50-560-1733</t>
   </si>
   <si>
     <t>אני</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-10-08
+ 52-614-6953</t>
+  </si>
+  <si>
     <t>מסבלטים את ביתנו מהיום עד שני</t>
+  </si>
+  <si>
+    <t>סאבלט בדפנה
+2021-10-08
+ 54-803-1663</t>
   </si>
   <si>
     <t>לספונטנים בניכם! 
@@ -2762,14 +2777,16 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-10</t>
+2021-10-10
+ 50-560-1733</t>
   </si>
   <si>
     <t>מסבלטת הלילה אם מישהו צריך</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-16</t>
+2021-10-16
+ 52-694-9934</t>
   </si>
   <si>
     <t>מציע סאבלט בדן דירת שתיים וחצי חדרים 
@@ -2777,13 +2794,24 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-17</t>
+2021-10-17
+ 53-623-0097</t>
   </si>
   <si>
     <t>מסבלטים מחמישי בערב ועד ראשון! 2 חתולים בדירה יוצאים ונכנסים...2 חדרי שינה וסלון...🤟🏽❤️</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-10-17
+ 50-749-8006</t>
+  </si>
+  <si>
     <t>מסבלטים חמישי - שבת. מתאים לזוג 🌸</t>
+  </si>
+  <si>
+    <t>סאבלט בדפנה
+2021-10-17
+ 52-541-5232</t>
   </si>
   <si>
     <t>סאבלט לשישבת 22-23, דירה מרווחת ונעימה, מתאים ליחיד או לזוג
@@ -2791,12 +2819,18 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-18</t>
+2021-10-18
+ 50-313-7824</t>
   </si>
   <si>
     <t>מסבלטים את דירתנו בין שישי לשבת, דירה מהממת נקיה ונוחה, 2 זוגות אופניים לטיול, ליחיד או לזוג ללא בע"ח. יש חתולה בדירה🐱</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-10-18
+ 53-623-0097</t>
+  </si>
+  <si>
     <t>😯</t>
   </si>
   <si>
@@ -2804,12 +2838,18 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-20</t>
+2021-10-20
+ 50-749-8006</t>
   </si>
   <si>
     <t>עדיין רלוונטי</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-10-20
+ 54-591-8528</t>
+  </si>
+  <si>
     <t>דירה מומלצת</t>
   </si>
   <si>
@@ -2817,7 +2857,8 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-21</t>
+2021-10-21
+ 50-960-3485</t>
   </si>
   <si>
     <t>בוקר טוב☀️
@@ -2826,7 +2867,8 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-22</t>
+2021-10-22
+ 50-388-8148</t>
   </si>
   <si>
     <t>בוקר טוב! 
@@ -2835,27 +2877,45 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-23</t>
+2021-10-23
+ 58-490-9002</t>
   </si>
   <si>
     <t>מסאבלט מיום שני הזה עד יום ראשון , 25-31 חמש דקות מהנחל פרטים ותמונות בפרטי🌄❤️</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-10-23
+None</t>
+  </si>
+  <si>
     <t>&lt;You deleted this message&gt;</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-24</t>
+2021-10-24
+ 54-210-4551</t>
   </si>
   <si>
     <t>&lt;Media omitted&gt;</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-10-24
+ 58-490-9002</t>
+  </si>
+  <si>
+    <t>סאבלט בדפנה
+2021-10-24
+ 50-388-8148</t>
+  </si>
+  <si>
     <t>עדיין רלוונטי, מוזמנים בפרטי. 🙌🏻</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-27</t>
+2021-10-27
+ 52-541-5232</t>
   </si>
   <si>
     <t>סאבלט בדפנה ב2-4/11 אמצע שבוע הבא, דירה נעימה גדולה נקייה ושקטה, מתאימה לזוג או ליחיד שרוצה ממלכה שלמה לעצמו👑
@@ -2864,7 +2924,8 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-10-31</t>
+2021-10-31
+ 50-749-8006</t>
   </si>
   <si>
     <t>מסבלטים חמישי-שבת 
@@ -2874,7 +2935,8 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-01</t>
+2021-11-01
+ 54-287-4253</t>
   </si>
   <si>
     <t>מסבלט מחמישי-שישי 
@@ -2882,15 +2944,22 @@
 דברו איתי בפרטי 🧞‍♀️</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-11-01
+ 52-541-5232</t>
+  </si>
+  <si>
     <t>סבלט בדפנה, רביעי עד שבת או רק חלק. מתאים לזוג או ליחיד שאוהב/ת מרחב! בית מהמם, נוף מטורף לשקיעה בגולן ולחרמון, קרוב לנחל ולטבע. מוזמנים 0525415232</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-02</t>
+2021-11-02
+ 54-234-5986</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-03</t>
+2021-11-03
+ 52-993-2253</t>
   </si>
   <si>
     <t>מסבלט שבוע הבא דירת שלושה חדרים
@@ -2898,24 +2967,32 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-05</t>
+2021-11-05
+ 54-633-7855</t>
   </si>
   <si>
     <t>מישהו מסאבלט לסופש הזה..?🙏🏻</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-07</t>
+2021-11-07
+ 54-444-4175</t>
   </si>
   <si>
     <t>מסאבלט מיום שלישי בערב עד שבת בערב 9-13.11 דירת 2.5 חדרים עם חצר בקיבוץ</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-08</t>
+2021-11-08
+ 52-993-2253</t>
   </si>
   <si>
     <t>מסבלט הסופש דירת שלושה חדרים מהממת</t>
+  </si>
+  <si>
+    <t>סאבלט בדפנה
+2021-11-08
+ 53-623-0097</t>
   </si>
   <si>
     <t>מסבלטים את דירתנו המהממת מחמישי בערב ועד שבת🤟🏽🤟🏽
@@ -2923,46 +3000,66 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-10</t>
+2021-11-10
+ 50-560-1733</t>
   </si>
   <si>
     <t>מסבלטת בסופש של ה18-20 מתאים לזוג</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-11-10
+ 54-771-1457</t>
+  </si>
+  <si>
     <t>מסבלט את הצימר שלי לסופש, צימר מעץ, שני חדרים עם חצר גדולה ונעימה</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-14</t>
+2021-11-14
+ 50-749-8006</t>
   </si>
   <si>
     <t>מסבלטים הסופש . לפרטים נוספים בפרטי 🌸</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-11-14
+ 50-560-1733</t>
+  </si>
+  <si>
     <t>מסבלטת הסופש מתאים לזוג 🙃</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-16</t>
+2021-11-16
+ 52-541-5232</t>
   </si>
   <si>
     <t>סאבלט בדפנה מה22 עד ה27, דירת שלושה חדרים, מוזמנים לחלק מהימים מוזמנים להכל🎉
 0525415232</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-11-16
+ 54-467-1173</t>
+  </si>
+  <si>
     <t>מסאבלט הסופש - צרו קשר בפרטי
 🐲</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-17</t>
+2021-11-17
+ 50-960-3485</t>
   </si>
   <si>
     <t>מסבלטת ממחר עד ראשון, דירת שלושה חדרים🌸</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-18</t>
+2021-11-18
+ 52-323-1734</t>
   </si>
   <si>
     <t>אשמח להפניות וכיוונים</t>
@@ -2972,7 +3069,13 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-21</t>
+2021-11-21
+ 52-541-5232</t>
+  </si>
+  <si>
+    <t>סאבלט בדפנה
+2021-11-21
+ 54-234-5986</t>
   </si>
   <si>
     <t>מסבלטים את הדירה שלנו  מחמישי הקרוב 25.11 עד יום ראשון 5.12.
@@ -2982,25 +3085,33 @@
 🌸🌸</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-11-21
+ 52-543-2554</t>
+  </si>
+  <si>
     <t>היי אשמח לתמונות בפרטי</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-23</t>
+2021-11-23
+ 52-993-2253</t>
   </si>
   <si>
     <t>מסבלט הסופש דירת שלושה חדרים</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-25</t>
+2021-11-25
+ 50-960-3485</t>
   </si>
   <si>
     <t>מסבלטת ממחר עד ראשון הבא 26/11-5/12, שתי חדרי שינה וסלון.</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-11-30</t>
+2021-11-30
+ 52-260-0562</t>
   </si>
   <si>
     <t>מסבלט את הדירה שלי במעיין ברוך לשבועיים
@@ -3011,24 +3122,37 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-01</t>
+2021-12-01
+ 50-960-3485</t>
   </si>
   <si>
     <t>מסבלטת מהיום עד ראשון בקומותיים:)</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-05</t>
+2021-12-05
+ 53-623-0097</t>
   </si>
   <si>
     <t>בפרטי👍🏽</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-12-05
+ 50-910-0671</t>
+  </si>
+  <si>
     <t>מסאבלטת בדירתי המשופצת והיפה מחמישי 9-11.12</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-06</t>
+2021-12-06
+ 54-524-6684</t>
+  </si>
+  <si>
+    <t>סאבלט בדפנה
+2021-12-06
+ 54-467-1173</t>
   </si>
   <si>
     <t>אריאב 💫</t>
@@ -3038,25 +3162,42 @@
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-08</t>
+2021-12-08
+ 54-444-4175</t>
   </si>
   <si>
     <t>מסאבלט את הדירה שלי משישי עד ראשון 
 מתאים לזוג</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-12-08
+ 53-623-0097</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 מסבלטים את הדירה המהממת שלנו..מחמישי ועד שבת...💪🏽</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-09</t>
+2021-12-09
+ 52-399-2085</t>
   </si>
   <si>
     <t>תעזרו לה 👆🙏</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-12-09
+ 53-623-0097</t>
+  </si>
+  <si>
     <t>אצלנו פנוי..יש 2 חתולים שיוצאים ונכנסים מהדירה</t>
+  </si>
+  <si>
+    <t>סאבלט בדפנה
+2021-12-09
+ 52-993-2253</t>
   </si>
   <si>
     <t>פנוי אצלי בסילבסטר
@@ -3064,58 +3205,89 @@
 שלושה חדרים</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-12-09
+ 54-224-2800</t>
+  </si>
+  <si>
     <t>מסבלטת שישי-שבת הזה, שלושה חדרים🌸🌸</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-12</t>
+2021-12-12
+ 50-910-0671</t>
   </si>
   <si>
     <t>מסאבלטת הסופ"ש 16-18.12 את דירתי היפה והמשופצת💕</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-13</t>
+2021-12-13
+ 50-960-3485</t>
   </si>
   <si>
     <t>מסבלטת הסופש 16-18/12 דירת שלושה חדרים</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-14</t>
+2021-12-14
+ 52-614-6953</t>
   </si>
   <si>
     <t>מסלבט  את דירתי, דירת שלושה חדרים בדפנה   מיום ראשון  19.12  לשבוע   עד לחמישי  ה23.12 עם אופציה להארכה לעוד פרטים מוזמנים לפנות בפרטי</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-15</t>
+2021-12-15
+None</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-19</t>
+2021-12-19
+ 50-202-3736</t>
   </si>
   <si>
     <t>סאבלט בדפנה
-2021-12-20</t>
+2021-12-20
+ 50-749-8006</t>
   </si>
   <si>
     <t>מסבלטים הסופש הקרוב שישי-שבת. דירה מרווחת ונעימה. מתאימה לזוג 🐌🦋</t>
+  </si>
+  <si>
+    <t>סאבלט בדפנה
+2021-12-20
+ 54-591-8528</t>
   </si>
   <si>
     <t>מומלץ בחום
 דירת החלומות</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-12-20
+ 50-388-8148</t>
+  </si>
+  <si>
     <t>מסבלטת בסוף החודש ל- 5 ימים. דירה מפנקת ומשופצת! 🥳</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-12-20
+ 54-680-8609</t>
+  </si>
+  <si>
     <t>מומלץ בחום! ❤️</t>
   </si>
   <si>
     <t>🙃🙃🙃😚</t>
   </si>
   <si>
+    <t>סאבלט בדפנה
+2021-12-20
+ 54-467-1173</t>
+  </si>
+  <si>
     <t>מסאבלט גם אני לסופש, שישי-ראשון 🍀</t>
   </si>
   <si>
@@ -3125,31 +3297,37 @@
     <t>11.10.2021</t>
   </si>
   <si>
+    <t>52-614-6953</t>
+  </si>
+  <si>
     <t>9.10.2021</t>
   </si>
   <si>
     <t>10.10.2021</t>
   </si>
   <si>
+    <t>50-560-1733</t>
+  </si>
+  <si>
+    <t>18.10.2021</t>
+  </si>
+  <si>
+    <t>30.10.2021</t>
+  </si>
+  <si>
     <t>דן</t>
   </si>
   <si>
-    <t>18.10.2021</t>
-  </si>
-  <si>
-    <t>30.10.2021</t>
-  </si>
-  <si>
-    <t>21.10.2021</t>
-  </si>
-  <si>
-    <t>24.10.2021</t>
+    <t>52-694-9934</t>
+  </si>
+  <si>
+    <t>22.10.2021</t>
   </si>
   <si>
     <t>23.10.2021</t>
   </si>
   <si>
-    <t>22.10.2021</t>
+    <t xml:space="preserve"> 50-313-7824</t>
   </si>
 </sst>
 </file>
@@ -3159,7 +3337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3194,6 +3372,19 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3205,12 +3396,15 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3320,7 +3514,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -3398,17 +3592,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -3438,48 +3664,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="20" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="21" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="29" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="20" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="30" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="21" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="29" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="30" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="30" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="30" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="31">
+    <cellStyle name="-1479731332976608901" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="227581367215772297" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="255128803282115672" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="2627439491476755219" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="3019662630706114945" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="-3028972107897705444" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="-3451930801534778880" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="-3683385671570500566" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="3868814055496020037" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="4640877849374002333" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="-4741961283013096547" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="-5069259824866068469" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="5180669584684959890" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="-5398991760319328651" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="5544308055042454701" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="-5935432621049393351" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="598804586497368574" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="-5993829526863967916" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="5994959640049480037" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="-6133241657024543279" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="6151795937723549594" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="6485191489580618468" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="-7021820898855807039" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="-729664007974769509" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="-8030539021321427676" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="8053980901521755562" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="8481096931575716860" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="8622948003501981397" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="-918871240910345814" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4379,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D234" sqref="D234"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4950,10 +5192,10 @@
         <v>64</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>20</v>
@@ -4964,10 +5206,10 @@
     </row>
     <row r="23" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>16</v>
@@ -4979,7 +5221,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>20</v>
@@ -4990,10 +5232,10 @@
     </row>
     <row r="24" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>16</v>
@@ -5002,7 +5244,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>26</v>
@@ -5016,19 +5258,19 @@
     </row>
     <row r="25" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>26</v>
@@ -5042,16 +5284,16 @@
     </row>
     <row r="26" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -5068,10 +5310,10 @@
     </row>
     <row r="27" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>16</v>
@@ -5083,7 +5325,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G27" s="5">
         <v>537295478</v>
@@ -5094,10 +5336,10 @@
     </row>
     <row r="28" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>16</v>
@@ -5109,7 +5351,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" s="5">
         <v>534301118</v>
@@ -5120,13 +5362,13 @@
     </row>
     <row r="29" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>90</v>
@@ -5146,10 +5388,10 @@
     </row>
     <row r="30" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>10</v>
@@ -5161,7 +5403,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>20</v>
@@ -5172,16 +5414,16 @@
     </row>
     <row r="31" spans="1:8" ht="403.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>18</v>
@@ -5198,10 +5440,10 @@
     </row>
     <row r="32" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>16</v>
@@ -5210,7 +5452,7 @@
         <v>17</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>19</v>
@@ -5224,22 +5466,22 @@
     </row>
     <row r="33" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G33" s="5">
         <v>528316179</v>
@@ -5250,22 +5492,22 @@
     </row>
     <row r="34" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>20</v>
@@ -5276,10 +5518,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>16</v>
@@ -5288,7 +5530,7 @@
         <v>17</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>60</v>
@@ -5302,10 +5544,10 @@
     </row>
     <row r="36" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>16</v>
@@ -5314,7 +5556,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>26</v>
@@ -5328,10 +5570,10 @@
     </row>
     <row r="37" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>16</v>
@@ -5354,16 +5596,16 @@
     </row>
     <row r="38" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>18</v>
@@ -5380,10 +5622,10 @@
     </row>
     <row r="39" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>16</v>
@@ -5395,7 +5637,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G39" s="5">
         <v>58448876</v>
@@ -5406,16 +5648,16 @@
     </row>
     <row r="40" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>72</v>
@@ -5432,10 +5674,10 @@
     </row>
     <row r="41" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>16</v>
@@ -5484,10 +5726,10 @@
     </row>
     <row r="43" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>16</v>
@@ -5499,7 +5741,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>20</v>
@@ -5510,10 +5752,10 @@
     </row>
     <row r="44" spans="1:8" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>16</v>
@@ -5522,13 +5764,13 @@
         <v>17</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>21</v>
@@ -5536,19 +5778,19 @@
     </row>
     <row r="45" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>32</v>
@@ -5562,16 +5804,16 @@
     </row>
     <row r="46" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>18</v>
@@ -5588,10 +5830,10 @@
     </row>
     <row r="47" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>16</v>
@@ -5603,7 +5845,7 @@
         <v>18</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>20</v>
@@ -5614,7 +5856,7 @@
     </row>
     <row r="48" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>75</v>
@@ -5640,10 +5882,10 @@
     </row>
     <row r="49" spans="1:8" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>16</v>
@@ -5652,13 +5894,13 @@
         <v>17</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>20</v>
+        <v>179</v>
+      </c>
+      <c r="G49" s="5">
+        <v>525543759</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>21</v>
@@ -5666,10 +5908,10 @@
     </row>
     <row r="50" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>42</v>
@@ -5678,7 +5920,7 @@
         <v>43</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>32</v>
@@ -5692,16 +5934,16 @@
     </row>
     <row r="51" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>18</v>
@@ -5718,10 +5960,10 @@
     </row>
     <row r="52" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B52" s="12" t="s">
         <v>187</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>16</v>
@@ -5744,10 +5986,10 @@
     </row>
     <row r="53" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>16</v>
@@ -5770,19 +6012,19 @@
     </row>
     <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>13</v>
@@ -5796,10 +6038,10 @@
     </row>
     <row r="55" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>16</v>
@@ -5822,10 +6064,10 @@
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>16</v>
@@ -5848,10 +6090,10 @@
     </row>
     <row r="57" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>16</v>
@@ -5874,13 +6116,13 @@
     </row>
     <row r="58" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>11</v>
@@ -5900,10 +6142,10 @@
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>16</v>
@@ -5915,7 +6157,7 @@
         <v>18</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G59" s="5">
         <v>545510966</v>
@@ -5926,10 +6168,10 @@
     </row>
     <row r="60" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>16</v>
@@ -5941,7 +6183,7 @@
         <v>18</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G60" s="5">
         <v>503200148</v>
@@ -5952,10 +6194,10 @@
     </row>
     <row r="61" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>16</v>
@@ -5964,7 +6206,7 @@
         <v>17</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>26</v>
@@ -5978,10 +6220,10 @@
     </row>
     <row r="62" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>16</v>
@@ -5990,7 +6232,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>26</v>
@@ -6004,19 +6246,19 @@
     </row>
     <row r="63" spans="1:8" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>47</v>
@@ -6030,16 +6272,16 @@
     </row>
     <row r="64" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>18</v>
@@ -6056,16 +6298,16 @@
     </row>
     <row r="65" spans="1:8" ht="172.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>18</v>
@@ -6082,19 +6324,19 @@
     </row>
     <row r="66" spans="1:8" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>47</v>
@@ -6108,10 +6350,10 @@
     </row>
     <row r="67" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>16</v>
@@ -6120,7 +6362,7 @@
         <v>17</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>26</v>
@@ -6134,13 +6376,13 @@
     </row>
     <row r="68" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>80</v>
@@ -6160,10 +6402,10 @@
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>16</v>
@@ -6186,10 +6428,10 @@
     </row>
     <row r="70" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
@@ -6212,10 +6454,10 @@
     </row>
     <row r="71" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
@@ -6238,10 +6480,10 @@
     </row>
     <row r="72" spans="1:8" ht="400.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
@@ -6264,10 +6506,10 @@
     </row>
     <row r="73" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
@@ -6290,10 +6532,10 @@
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
@@ -6316,10 +6558,10 @@
     </row>
     <row r="75" spans="1:8" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
@@ -6342,10 +6584,10 @@
     </row>
     <row r="76" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>16</v>
@@ -6368,10 +6610,10 @@
     </row>
     <row r="77" spans="1:8" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>16</v>
@@ -6394,10 +6636,10 @@
     </row>
     <row r="78" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
@@ -6420,10 +6662,10 @@
     </row>
     <row r="79" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
@@ -6446,10 +6688,10 @@
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
@@ -6472,10 +6714,10 @@
     </row>
     <row r="81" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>16</v>
@@ -6498,10 +6740,10 @@
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
@@ -6524,10 +6766,10 @@
     </row>
     <row r="83" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
@@ -6550,10 +6792,10 @@
     </row>
     <row r="84" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
@@ -6576,10 +6818,10 @@
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -6602,10 +6844,10 @@
     </row>
     <row r="86" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
@@ -6628,10 +6870,10 @@
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
@@ -6654,10 +6896,10 @@
     </row>
     <row r="88" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
@@ -6680,10 +6922,10 @@
     </row>
     <row r="89" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>16</v>
@@ -6706,10 +6948,10 @@
     </row>
     <row r="90" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>16</v>
@@ -6732,10 +6974,10 @@
     </row>
     <row r="91" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
@@ -6758,10 +7000,10 @@
     </row>
     <row r="92" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
@@ -6784,10 +7026,10 @@
     </row>
     <row r="93" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
@@ -6810,10 +7052,10 @@
     </row>
     <row r="94" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
@@ -6836,10 +7078,10 @@
     </row>
     <row r="95" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
@@ -6862,10 +7104,10 @@
     </row>
     <row r="96" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
@@ -6888,10 +7130,10 @@
     </row>
     <row r="97" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
@@ -6914,10 +7156,10 @@
     </row>
     <row r="98" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>16</v>
@@ -6940,10 +7182,10 @@
     </row>
     <row r="99" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
@@ -6966,10 +7208,10 @@
     </row>
     <row r="100" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
@@ -6992,10 +7234,10 @@
     </row>
     <row r="101" spans="1:8" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>16</v>
@@ -7018,10 +7260,10 @@
     </row>
     <row r="102" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
@@ -7044,10 +7286,10 @@
     </row>
     <row r="103" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>16</v>
@@ -7070,10 +7312,10 @@
     </row>
     <row r="104" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
@@ -7096,10 +7338,10 @@
     </row>
     <row r="105" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
@@ -7122,10 +7364,10 @@
     </row>
     <row r="106" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
@@ -7148,10 +7390,10 @@
     </row>
     <row r="107" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
@@ -7174,10 +7416,10 @@
     </row>
     <row r="108" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
@@ -7200,10 +7442,10 @@
     </row>
     <row r="109" spans="1:8" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
@@ -7226,10 +7468,10 @@
     </row>
     <row r="110" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
@@ -7252,10 +7494,10 @@
     </row>
     <row r="111" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
@@ -7278,10 +7520,10 @@
     </row>
     <row r="112" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
@@ -7304,10 +7546,10 @@
     </row>
     <row r="113" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
@@ -7330,10 +7572,10 @@
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
@@ -7356,10 +7598,10 @@
     </row>
     <row r="115" spans="1:8" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>16</v>
@@ -7382,10 +7624,10 @@
     </row>
     <row r="116" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
@@ -7408,10 +7650,10 @@
     </row>
     <row r="117" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
@@ -7434,10 +7676,10 @@
     </row>
     <row r="118" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
@@ -7460,10 +7702,10 @@
     </row>
     <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
@@ -7486,7 +7728,7 @@
     </row>
     <row r="120" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>62</v>
@@ -7512,10 +7754,10 @@
     </row>
     <row r="121" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
@@ -7538,10 +7780,10 @@
     </row>
     <row r="122" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
@@ -7564,10 +7806,10 @@
     </row>
     <row r="123" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
@@ -7590,10 +7832,10 @@
     </row>
     <row r="124" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>16</v>
@@ -7616,10 +7858,10 @@
     </row>
     <row r="125" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
@@ -7642,10 +7884,10 @@
     </row>
     <row r="126" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
@@ -7668,10 +7910,10 @@
     </row>
     <row r="127" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>16</v>
@@ -7694,10 +7936,10 @@
     </row>
     <row r="128" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>16</v>
@@ -7720,10 +7962,10 @@
     </row>
     <row r="129" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
@@ -7746,7 +7988,7 @@
     </row>
     <row r="130" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>75</v>
@@ -7772,10 +8014,10 @@
     </row>
     <row r="131" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>16</v>
@@ -7798,10 +8040,10 @@
     </row>
     <row r="132" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>16</v>
@@ -7824,10 +8066,10 @@
     </row>
     <row r="133" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
@@ -7850,10 +8092,10 @@
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
@@ -7876,10 +8118,10 @@
     </row>
     <row r="135" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>16</v>
@@ -7902,10 +8144,10 @@
     </row>
     <row r="136" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>16</v>
@@ -7928,10 +8170,10 @@
     </row>
     <row r="137" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>16</v>
@@ -7954,10 +8196,10 @@
     </row>
     <row r="138" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>16</v>
@@ -7980,10 +8222,10 @@
     </row>
     <row r="139" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>16</v>
@@ -8006,10 +8248,10 @@
     </row>
     <row r="140" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>16</v>
@@ -8032,10 +8274,10 @@
     </row>
     <row r="141" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>16</v>
@@ -8058,10 +8300,10 @@
     </row>
     <row r="142" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>16</v>
@@ -8084,10 +8326,10 @@
     </row>
     <row r="143" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>16</v>
@@ -8110,10 +8352,10 @@
     </row>
     <row r="144" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>16</v>
@@ -8136,10 +8378,10 @@
     </row>
     <row r="145" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>16</v>
@@ -8162,10 +8404,10 @@
     </row>
     <row r="146" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>16</v>
@@ -8188,10 +8430,10 @@
     </row>
     <row r="147" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>16</v>
@@ -8214,10 +8456,10 @@
     </row>
     <row r="148" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>16</v>
@@ -8240,10 +8482,10 @@
     </row>
     <row r="149" spans="1:8" ht="352.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>16</v>
@@ -8266,10 +8508,10 @@
     </row>
     <row r="150" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>16</v>
@@ -8292,10 +8534,10 @@
     </row>
     <row r="151" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>16</v>
@@ -8318,10 +8560,10 @@
     </row>
     <row r="152" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>16</v>
@@ -8344,10 +8586,10 @@
     </row>
     <row r="153" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>16</v>
@@ -8370,10 +8612,10 @@
     </row>
     <row r="154" spans="1:8" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>16</v>
@@ -8396,10 +8638,10 @@
     </row>
     <row r="155" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>16</v>
@@ -8422,10 +8664,10 @@
     </row>
     <row r="156" spans="1:8" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>16</v>
@@ -8448,10 +8690,10 @@
     </row>
     <row r="157" spans="1:8" ht="400.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>16</v>
@@ -8474,10 +8716,10 @@
     </row>
     <row r="158" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>16</v>
@@ -8500,10 +8742,10 @@
     </row>
     <row r="159" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>16</v>
@@ -8526,10 +8768,10 @@
     </row>
     <row r="160" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>16</v>
@@ -8552,7 +8794,7 @@
     </row>
     <row r="161" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="2" t="s">
@@ -8576,10 +8818,10 @@
     </row>
     <row r="162" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>16</v>
@@ -8602,10 +8844,10 @@
     </row>
     <row r="163" spans="1:8" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>16</v>
@@ -8628,7 +8870,7 @@
     </row>
     <row r="164" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="2" t="s">
@@ -8652,10 +8894,10 @@
     </row>
     <row r="165" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>16</v>
@@ -8678,10 +8920,10 @@
     </row>
     <row r="166" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>16</v>
@@ -8704,10 +8946,10 @@
     </row>
     <row r="167" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>16</v>
@@ -8730,10 +8972,10 @@
     </row>
     <row r="168" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>16</v>
@@ -8756,10 +8998,10 @@
     </row>
     <row r="169" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>16</v>
@@ -8782,7 +9024,7 @@
     </row>
     <row r="170" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>75</v>
@@ -8808,10 +9050,10 @@
     </row>
     <row r="171" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>16</v>
@@ -8834,10 +9076,10 @@
     </row>
     <row r="172" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>16</v>
@@ -8860,10 +9102,10 @@
     </row>
     <row r="173" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>16</v>
@@ -8886,10 +9128,10 @@
     </row>
     <row r="174" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>16</v>
@@ -8912,10 +9154,10 @@
     </row>
     <row r="175" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>16</v>
@@ -8938,10 +9180,10 @@
     </row>
     <row r="176" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>16</v>
@@ -8964,7 +9206,7 @@
     </row>
     <row r="177" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="2" t="s">
@@ -8988,10 +9230,10 @@
     </row>
     <row r="178" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>16</v>
@@ -9014,10 +9256,10 @@
     </row>
     <row r="179" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>16</v>
@@ -9040,10 +9282,10 @@
     </row>
     <row r="180" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>16</v>
@@ -9066,10 +9308,10 @@
     </row>
     <row r="181" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>16</v>
@@ -9092,10 +9334,10 @@
     </row>
     <row r="182" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>16</v>
@@ -9118,10 +9360,10 @@
     </row>
     <row r="183" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>16</v>
@@ -9144,10 +9386,10 @@
     </row>
     <row r="184" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>16</v>
@@ -9170,10 +9412,10 @@
     </row>
     <row r="185" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>16</v>
@@ -9196,10 +9438,10 @@
     </row>
     <row r="186" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>16</v>
@@ -9222,10 +9464,10 @@
     </row>
     <row r="187" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>16</v>
@@ -9248,10 +9490,10 @@
     </row>
     <row r="188" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>16</v>
@@ -9274,10 +9516,10 @@
     </row>
     <row r="189" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>16</v>
@@ -9300,10 +9542,10 @@
     </row>
     <row r="190" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>16</v>
@@ -9326,10 +9568,10 @@
     </row>
     <row r="191" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>16</v>
@@ -9352,10 +9594,10 @@
     </row>
     <row r="192" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>16</v>
@@ -9378,10 +9620,10 @@
     </row>
     <row r="193" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>16</v>
@@ -9404,10 +9646,10 @@
     </row>
     <row r="194" spans="1:8" ht="400.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>16</v>
@@ -9430,10 +9672,10 @@
     </row>
     <row r="195" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>16</v>
@@ -9456,10 +9698,10 @@
     </row>
     <row r="196" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>16</v>
@@ -9482,10 +9724,10 @@
     </row>
     <row r="197" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>16</v>
@@ -9508,10 +9750,10 @@
     </row>
     <row r="198" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>16</v>
@@ -9534,10 +9776,10 @@
     </row>
     <row r="199" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>16</v>
@@ -9560,10 +9802,10 @@
     </row>
     <row r="200" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>16</v>
@@ -9586,10 +9828,10 @@
     </row>
     <row r="201" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>16</v>
@@ -9612,10 +9854,10 @@
     </row>
     <row r="202" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>16</v>
@@ -9638,10 +9880,10 @@
     </row>
     <row r="203" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>16</v>
@@ -9664,10 +9906,10 @@
     </row>
     <row r="204" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>16</v>
@@ -9690,10 +9932,10 @@
     </row>
     <row r="205" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>16</v>
@@ -9716,10 +9958,10 @@
     </row>
     <row r="206" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>16</v>
@@ -9742,10 +9984,10 @@
     </row>
     <row r="207" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>16</v>
@@ -9768,10 +10010,10 @@
     </row>
     <row r="208" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>16</v>
@@ -9794,10 +10036,10 @@
     </row>
     <row r="209" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>16</v>
@@ -9820,10 +10062,10 @@
     </row>
     <row r="210" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>16</v>
@@ -9846,10 +10088,10 @@
     </row>
     <row r="211" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>16</v>
@@ -9872,10 +10114,10 @@
     </row>
     <row r="212" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>16</v>
@@ -9898,10 +10140,10 @@
     </row>
     <row r="213" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>16</v>
@@ -9924,10 +10166,10 @@
     </row>
     <row r="214" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>16</v>
@@ -10162,7 +10404,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{7228AA44-B0B3-4766-B63D-6E7B94279501}"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10172,8 +10414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10183,1899 +10425,1899 @@
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="12">
+        <v>525415232</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="C59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="C60" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="11">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="C61" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="C62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="11">
-        <v>525415232</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="B63" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="C65" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="75" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="11" t="s">
+      <c r="C67" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\PycharmProjects\traveliz\data_utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avishaya\PycharmProjects\traveliz\data_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CEBBFD-922A-4D34-AA9F-15D26450EE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D44A3-1C47-4B9F-B48C-06A9A2EE4893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="facebook" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="657">
   <si>
     <t>Post_id</t>
   </si>
@@ -3328,6 +3328,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 50-313-7824</t>
+  </si>
+  <si>
+    <t>4 s</t>
+  </si>
+  <si>
+    <t>1 s</t>
+  </si>
+  <si>
+    <t>3 s</t>
   </si>
 </sst>
 </file>
@@ -4621,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5278,8 +5287,8 @@
       <c r="G25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="5">
-        <v>1</v>
+      <c r="H25" s="5" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5460,8 +5469,8 @@
       <c r="G32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="5">
-        <v>1</v>
+      <c r="H32" s="5" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -5825,7 +5834,7 @@
         <v>20</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>21</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -10414,8 +10423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avishaya\PycharmProjects\traveliz\data_utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\PycharmProjects\traveliz\data_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D44A3-1C47-4B9F-B48C-06A9A2EE4893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08932FC6-2836-4DC7-9B89-09FD87AFCDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="facebook" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="655">
   <si>
     <t>Post_id</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>300 d</t>
-  </si>
-  <si>
-    <t>עמק החולה</t>
   </si>
   <si>
     <t>862572704455602</t>
@@ -287,9 +284,6 @@
   </si>
   <si>
     <t>3300 m</t>
-  </si>
-  <si>
-    <t>חיפה?</t>
   </si>
   <si>
     <t>1505107356514134</t>
@@ -783,9 +777,6 @@
     <t>3600 m</t>
   </si>
   <si>
-    <t>533331723, 545688581</t>
-  </si>
-  <si>
     <t>4596693983771784</t>
   </si>
   <si>
@@ -968,9 +959,6 @@
 יציאה ישירות מהבית לואדי עם נוף מטריף
 מרחק הליכה ממרכז טבעון
 למתענינים בבקשה לפנות רק למספר זה רות-0545510966</t>
-  </si>
-  <si>
-    <t>קרית טבעון</t>
   </si>
   <si>
     <t>4732040043512816</t>
@@ -3337,6 +3325,12 @@
   </si>
   <si>
     <t>3 s</t>
+  </si>
+  <si>
+    <t>533331723, 545686561</t>
+  </si>
+  <si>
+    <t>אמירים</t>
   </si>
 </sst>
 </file>
@@ -3745,6 +3739,24 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
@@ -3867,24 +3879,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4630,8 +4624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4840,7 +4834,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>20</v>
@@ -4851,22 +4845,22 @@
     </row>
     <row r="9" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="G9" s="5">
         <v>524465203</v>
@@ -4877,25 +4871,25 @@
     </row>
     <row r="10" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>21</v>
@@ -4903,19 +4897,19 @@
     </row>
     <row r="11" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>26</v>
@@ -4929,22 +4923,22 @@
     </row>
     <row r="12" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="G12" s="5">
         <v>503847930</v>
@@ -4955,22 +4949,22 @@
     </row>
     <row r="13" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="G13" s="5">
         <v>535503661</v>
@@ -4981,19 +4975,19 @@
     </row>
     <row r="14" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>26</v>
@@ -5007,10 +5001,10 @@
     </row>
     <row r="15" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>16</v>
@@ -5033,22 +5027,22 @@
     </row>
     <row r="16" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>20</v>
@@ -5059,22 +5053,22 @@
     </row>
     <row r="17" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>20</v>
@@ -5085,22 +5079,22 @@
     </row>
     <row r="18" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="G18" s="5">
         <v>543286986</v>
@@ -5111,10 +5105,10 @@
     </row>
     <row r="19" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>16</v>
@@ -5137,22 +5131,22 @@
     </row>
     <row r="20" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="G20" s="5">
         <v>555613650</v>
@@ -5163,19 +5157,19 @@
     </row>
     <row r="21" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>26</v>
@@ -5189,22 +5183,22 @@
     </row>
     <row r="22" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="D22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>20</v>
@@ -5215,22 +5209,22 @@
     </row>
     <row r="23" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>20</v>
@@ -5241,19 +5235,19 @@
     </row>
     <row r="24" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>26</v>
@@ -5267,19 +5261,19 @@
     </row>
     <row r="25" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="D25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>26</v>
@@ -5288,21 +5282,21 @@
         <v>20</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -5319,22 +5313,22 @@
     </row>
     <row r="27" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="G27" s="5">
         <v>537295478</v>
@@ -5345,22 +5339,22 @@
     </row>
     <row r="28" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="G28" s="5">
         <v>534301118</v>
@@ -5371,16 +5365,16 @@
     </row>
     <row r="29" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>18</v>
@@ -5397,10 +5391,10 @@
     </row>
     <row r="30" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>10</v>
@@ -5412,7 +5406,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>20</v>
@@ -5423,16 +5417,16 @@
     </row>
     <row r="31" spans="1:8" ht="403.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>18</v>
@@ -5449,48 +5443,48 @@
     </row>
     <row r="32" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="G33" s="5">
         <v>528316179</v>
@@ -5501,22 +5495,22 @@
     </row>
     <row r="34" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>20</v>
@@ -5527,22 +5521,22 @@
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="F35" s="5" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>20</v>
@@ -5553,10 +5547,10 @@
     </row>
     <row r="36" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>16</v>
@@ -5565,7 +5559,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>26</v>
@@ -5579,10 +5573,10 @@
     </row>
     <row r="37" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>16</v>
@@ -5605,16 +5599,16 @@
     </row>
     <row r="38" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>18</v>
@@ -5631,25 +5625,25 @@
     </row>
     <row r="39" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="G39" s="5">
-        <v>58448876</v>
+        <v>584488876</v>
       </c>
       <c r="H39" s="5">
         <v>4</v>
@@ -5657,19 +5651,19 @@
     </row>
     <row r="40" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="E40" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>26</v>
@@ -5683,10 +5677,10 @@
     </row>
     <row r="41" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>16</v>
@@ -5709,10 +5703,10 @@
     </row>
     <row r="42" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>16</v>
@@ -5735,22 +5729,22 @@
     </row>
     <row r="43" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>20</v>
@@ -5761,25 +5755,25 @@
     </row>
     <row r="44" spans="1:8" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>163</v>
+        <v>653</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>21</v>
@@ -5787,19 +5781,19 @@
     </row>
     <row r="45" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>32</v>
@@ -5813,36 +5807,36 @@
     </row>
     <row r="46" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>16</v>
@@ -5854,7 +5848,7 @@
         <v>18</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>20</v>
@@ -5865,10 +5859,10 @@
     </row>
     <row r="48" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>16</v>
@@ -5880,7 +5874,7 @@
         <v>18</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>20</v>
@@ -5891,22 +5885,22 @@
     </row>
     <row r="49" spans="1:8" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="G49" s="5">
         <v>525543759</v>
@@ -5917,19 +5911,19 @@
     </row>
     <row r="50" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>32</v>
@@ -5943,16 +5937,16 @@
     </row>
     <row r="51" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>18</v>
@@ -5969,10 +5963,10 @@
     </row>
     <row r="52" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>16</v>
@@ -5995,10 +5989,10 @@
     </row>
     <row r="53" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>16</v>
@@ -6021,19 +6015,19 @@
     </row>
     <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>13</v>
@@ -6047,10 +6041,10 @@
     </row>
     <row r="55" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>16</v>
@@ -6059,7 +6053,7 @@
         <v>17</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>13</v>
@@ -6073,10 +6067,10 @@
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>16</v>
@@ -6099,10 +6093,10 @@
     </row>
     <row r="57" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>16</v>
@@ -6125,13 +6119,13 @@
     </row>
     <row r="58" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>11</v>
@@ -6151,10 +6145,10 @@
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>16</v>
@@ -6166,7 +6160,7 @@
         <v>18</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="G59" s="5">
         <v>545510966</v>
@@ -6177,10 +6171,10 @@
     </row>
     <row r="60" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>16</v>
@@ -6192,7 +6186,7 @@
         <v>18</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G60" s="5">
         <v>503200148</v>
@@ -6203,10 +6197,10 @@
     </row>
     <row r="61" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>16</v>
@@ -6215,7 +6209,7 @@
         <v>17</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>26</v>
@@ -6229,10 +6223,10 @@
     </row>
     <row r="62" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>16</v>
@@ -6241,7 +6235,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>26</v>
@@ -6255,22 +6249,22 @@
     </row>
     <row r="63" spans="1:8" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G63" s="5">
         <v>502290056</v>
@@ -6281,16 +6275,16 @@
     </row>
     <row r="64" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>18</v>
@@ -6307,16 +6301,16 @@
     </row>
     <row r="65" spans="1:8" ht="172.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>18</v>
@@ -6333,22 +6327,22 @@
     </row>
     <row r="66" spans="1:8" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="F66" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>20</v>
@@ -6359,10 +6353,10 @@
     </row>
     <row r="67" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>16</v>
@@ -6371,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>26</v>
@@ -6385,16 +6379,16 @@
     </row>
     <row r="68" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>18</v>
@@ -6411,10 +6405,10 @@
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>16</v>
@@ -6437,10 +6431,10 @@
     </row>
     <row r="70" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
@@ -6463,10 +6457,10 @@
     </row>
     <row r="71" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
@@ -6489,10 +6483,10 @@
     </row>
     <row r="72" spans="1:8" ht="400.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
@@ -6515,10 +6509,10 @@
     </row>
     <row r="73" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
@@ -6541,10 +6535,10 @@
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
@@ -6567,10 +6561,10 @@
     </row>
     <row r="75" spans="1:8" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
@@ -6593,10 +6587,10 @@
     </row>
     <row r="76" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>16</v>
@@ -6619,10 +6613,10 @@
     </row>
     <row r="77" spans="1:8" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>16</v>
@@ -6645,10 +6639,10 @@
     </row>
     <row r="78" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
@@ -6671,10 +6665,10 @@
     </row>
     <row r="79" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
@@ -6697,10 +6691,10 @@
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
@@ -6723,10 +6717,10 @@
     </row>
     <row r="81" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>16</v>
@@ -6749,10 +6743,10 @@
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
@@ -6775,10 +6769,10 @@
     </row>
     <row r="83" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
@@ -6801,10 +6795,10 @@
     </row>
     <row r="84" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
@@ -6827,10 +6821,10 @@
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -6853,10 +6847,10 @@
     </row>
     <row r="86" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
@@ -6879,10 +6873,10 @@
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
@@ -6905,10 +6899,10 @@
     </row>
     <row r="88" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
@@ -6931,10 +6925,10 @@
     </row>
     <row r="89" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>16</v>
@@ -6957,10 +6951,10 @@
     </row>
     <row r="90" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>16</v>
@@ -6983,10 +6977,10 @@
     </row>
     <row r="91" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
@@ -7009,10 +7003,10 @@
     </row>
     <row r="92" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
@@ -7035,10 +7029,10 @@
     </row>
     <row r="93" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
@@ -7061,10 +7055,10 @@
     </row>
     <row r="94" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
@@ -7087,10 +7081,10 @@
     </row>
     <row r="95" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
@@ -7113,10 +7107,10 @@
     </row>
     <row r="96" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
@@ -7139,10 +7133,10 @@
     </row>
     <row r="97" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
@@ -7165,10 +7159,10 @@
     </row>
     <row r="98" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>16</v>
@@ -7191,10 +7185,10 @@
     </row>
     <row r="99" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
@@ -7217,10 +7211,10 @@
     </row>
     <row r="100" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
@@ -7243,10 +7237,10 @@
     </row>
     <row r="101" spans="1:8" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>16</v>
@@ -7269,10 +7263,10 @@
     </row>
     <row r="102" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
@@ -7295,10 +7289,10 @@
     </row>
     <row r="103" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>16</v>
@@ -7321,10 +7315,10 @@
     </row>
     <row r="104" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
@@ -7347,10 +7341,10 @@
     </row>
     <row r="105" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
@@ -7373,10 +7367,10 @@
     </row>
     <row r="106" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
@@ -7399,10 +7393,10 @@
     </row>
     <row r="107" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
@@ -7425,10 +7419,10 @@
     </row>
     <row r="108" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
@@ -7451,10 +7445,10 @@
     </row>
     <row r="109" spans="1:8" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
@@ -7477,10 +7471,10 @@
     </row>
     <row r="110" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
@@ -7503,10 +7497,10 @@
     </row>
     <row r="111" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
@@ -7529,10 +7523,10 @@
     </row>
     <row r="112" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
@@ -7555,10 +7549,10 @@
     </row>
     <row r="113" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
@@ -7581,10 +7575,10 @@
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
@@ -7607,10 +7601,10 @@
     </row>
     <row r="115" spans="1:8" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>16</v>
@@ -7633,10 +7627,10 @@
     </row>
     <row r="116" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
@@ -7659,10 +7653,10 @@
     </row>
     <row r="117" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
@@ -7685,10 +7679,10 @@
     </row>
     <row r="118" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
@@ -7711,10 +7705,10 @@
     </row>
     <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
@@ -7737,10 +7731,10 @@
     </row>
     <row r="120" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
@@ -7763,10 +7757,10 @@
     </row>
     <row r="121" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
@@ -7789,10 +7783,10 @@
     </row>
     <row r="122" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
@@ -7815,10 +7809,10 @@
     </row>
     <row r="123" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
@@ -7841,10 +7835,10 @@
     </row>
     <row r="124" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>16</v>
@@ -7867,10 +7861,10 @@
     </row>
     <row r="125" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
@@ -7893,10 +7887,10 @@
     </row>
     <row r="126" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
@@ -7919,10 +7913,10 @@
     </row>
     <row r="127" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>16</v>
@@ -7945,10 +7939,10 @@
     </row>
     <row r="128" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>16</v>
@@ -7971,10 +7965,10 @@
     </row>
     <row r="129" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
@@ -7997,10 +7991,10 @@
     </row>
     <row r="130" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>16</v>
@@ -8023,10 +8017,10 @@
     </row>
     <row r="131" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>16</v>
@@ -8049,10 +8043,10 @@
     </row>
     <row r="132" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>16</v>
@@ -8075,10 +8069,10 @@
     </row>
     <row r="133" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
@@ -8101,10 +8095,10 @@
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
@@ -8127,10 +8121,10 @@
     </row>
     <row r="135" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>16</v>
@@ -8153,10 +8147,10 @@
     </row>
     <row r="136" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>16</v>
@@ -8179,10 +8173,10 @@
     </row>
     <row r="137" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>16</v>
@@ -8205,10 +8199,10 @@
     </row>
     <row r="138" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>16</v>
@@ -8231,10 +8225,10 @@
     </row>
     <row r="139" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>16</v>
@@ -8257,10 +8251,10 @@
     </row>
     <row r="140" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>16</v>
@@ -8283,10 +8277,10 @@
     </row>
     <row r="141" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>16</v>
@@ -8309,10 +8303,10 @@
     </row>
     <row r="142" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>16</v>
@@ -8335,10 +8329,10 @@
     </row>
     <row r="143" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>16</v>
@@ -8361,10 +8355,10 @@
     </row>
     <row r="144" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>16</v>
@@ -8387,10 +8381,10 @@
     </row>
     <row r="145" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>16</v>
@@ -8413,10 +8407,10 @@
     </row>
     <row r="146" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>16</v>
@@ -8439,10 +8433,10 @@
     </row>
     <row r="147" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>16</v>
@@ -8465,10 +8459,10 @@
     </row>
     <row r="148" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>16</v>
@@ -8491,10 +8485,10 @@
     </row>
     <row r="149" spans="1:8" ht="352.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>16</v>
@@ -8517,10 +8511,10 @@
     </row>
     <row r="150" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>16</v>
@@ -8543,10 +8537,10 @@
     </row>
     <row r="151" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>16</v>
@@ -8569,10 +8563,10 @@
     </row>
     <row r="152" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>16</v>
@@ -8595,10 +8589,10 @@
     </row>
     <row r="153" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>16</v>
@@ -8621,10 +8615,10 @@
     </row>
     <row r="154" spans="1:8" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>16</v>
@@ -8647,10 +8641,10 @@
     </row>
     <row r="155" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>16</v>
@@ -8673,10 +8667,10 @@
     </row>
     <row r="156" spans="1:8" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>16</v>
@@ -8699,10 +8693,10 @@
     </row>
     <row r="157" spans="1:8" ht="400.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>16</v>
@@ -8725,10 +8719,10 @@
     </row>
     <row r="158" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>16</v>
@@ -8751,10 +8745,10 @@
     </row>
     <row r="159" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>16</v>
@@ -8777,10 +8771,10 @@
     </row>
     <row r="160" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>16</v>
@@ -8803,7 +8797,7 @@
     </row>
     <row r="161" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="2" t="s">
@@ -8827,10 +8821,10 @@
     </row>
     <row r="162" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>16</v>
@@ -8853,10 +8847,10 @@
     </row>
     <row r="163" spans="1:8" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>16</v>
@@ -8879,7 +8873,7 @@
     </row>
     <row r="164" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="2" t="s">
@@ -8903,10 +8897,10 @@
     </row>
     <row r="165" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>16</v>
@@ -8929,10 +8923,10 @@
     </row>
     <row r="166" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>16</v>
@@ -8955,10 +8949,10 @@
     </row>
     <row r="167" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>16</v>
@@ -8981,10 +8975,10 @@
     </row>
     <row r="168" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>16</v>
@@ -9007,10 +9001,10 @@
     </row>
     <row r="169" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>16</v>
@@ -9033,10 +9027,10 @@
     </row>
     <row r="170" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>16</v>
@@ -9059,10 +9053,10 @@
     </row>
     <row r="171" spans="1:8" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>16</v>
@@ -9085,10 +9079,10 @@
     </row>
     <row r="172" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>16</v>
@@ -9111,10 +9105,10 @@
     </row>
     <row r="173" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>16</v>
@@ -9137,10 +9131,10 @@
     </row>
     <row r="174" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>16</v>
@@ -9163,10 +9157,10 @@
     </row>
     <row r="175" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>16</v>
@@ -9189,10 +9183,10 @@
     </row>
     <row r="176" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>16</v>
@@ -9215,7 +9209,7 @@
     </row>
     <row r="177" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="2" t="s">
@@ -9239,10 +9233,10 @@
     </row>
     <row r="178" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>16</v>
@@ -9265,10 +9259,10 @@
     </row>
     <row r="179" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>16</v>
@@ -9291,10 +9285,10 @@
     </row>
     <row r="180" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>16</v>
@@ -9317,10 +9311,10 @@
     </row>
     <row r="181" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>16</v>
@@ -9343,10 +9337,10 @@
     </row>
     <row r="182" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>16</v>
@@ -9369,10 +9363,10 @@
     </row>
     <row r="183" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>16</v>
@@ -9395,10 +9389,10 @@
     </row>
     <row r="184" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>16</v>
@@ -9421,10 +9415,10 @@
     </row>
     <row r="185" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>16</v>
@@ -9447,10 +9441,10 @@
     </row>
     <row r="186" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>16</v>
@@ -9473,10 +9467,10 @@
     </row>
     <row r="187" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>16</v>
@@ -9499,10 +9493,10 @@
     </row>
     <row r="188" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>16</v>
@@ -9525,10 +9519,10 @@
     </row>
     <row r="189" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>16</v>
@@ -9551,10 +9545,10 @@
     </row>
     <row r="190" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>16</v>
@@ -9577,10 +9571,10 @@
     </row>
     <row r="191" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>16</v>
@@ -9603,10 +9597,10 @@
     </row>
     <row r="192" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>16</v>
@@ -9629,10 +9623,10 @@
     </row>
     <row r="193" spans="1:8" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>16</v>
@@ -9655,10 +9649,10 @@
     </row>
     <row r="194" spans="1:8" ht="400.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>16</v>
@@ -9681,10 +9675,10 @@
     </row>
     <row r="195" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>16</v>
@@ -9707,10 +9701,10 @@
     </row>
     <row r="196" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>16</v>
@@ -9733,10 +9727,10 @@
     </row>
     <row r="197" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>16</v>
@@ -9759,10 +9753,10 @@
     </row>
     <row r="198" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>16</v>
@@ -9785,10 +9779,10 @@
     </row>
     <row r="199" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>16</v>
@@ -9811,10 +9805,10 @@
     </row>
     <row r="200" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>16</v>
@@ -9837,10 +9831,10 @@
     </row>
     <row r="201" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>16</v>
@@ -9863,10 +9857,10 @@
     </row>
     <row r="202" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>16</v>
@@ -9889,10 +9883,10 @@
     </row>
     <row r="203" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>16</v>
@@ -9915,10 +9909,10 @@
     </row>
     <row r="204" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>16</v>
@@ -9941,10 +9935,10 @@
     </row>
     <row r="205" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>16</v>
@@ -9967,10 +9961,10 @@
     </row>
     <row r="206" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>16</v>
@@ -9993,10 +9987,10 @@
     </row>
     <row r="207" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>16</v>
@@ -10019,10 +10013,10 @@
     </row>
     <row r="208" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>16</v>
@@ -10045,10 +10039,10 @@
     </row>
     <row r="209" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>16</v>
@@ -10071,10 +10065,10 @@
     </row>
     <row r="210" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>16</v>
@@ -10097,10 +10091,10 @@
     </row>
     <row r="211" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>16</v>
@@ -10123,10 +10117,10 @@
     </row>
     <row r="212" spans="1:8" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>16</v>
@@ -10149,10 +10143,10 @@
     </row>
     <row r="213" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>16</v>
@@ -10175,10 +10169,10 @@
     </row>
     <row r="214" spans="1:8" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>16</v>
@@ -10317,98 +10311,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D44 D46:D50">
-    <cfRule type="containsText" dxfId="39" priority="16" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
       <formula>ISBLANK(D11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E50">
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="23" stopIfTrue="1">
       <formula>ISBLANK(E11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F50">
-    <cfRule type="containsText" dxfId="35" priority="18" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
       <formula>ISBLANK(F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G50">
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="25" stopIfTrue="1">
       <formula>ISBLANK(G11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H50">
-    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="33" priority="20" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="26" stopIfTrue="1">
       <formula>ISBLANK(H11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",D45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="14" stopIfTrue="1">
       <formula>ISBLANK(D45)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:C69">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
       <formula>ISBLANK(C51)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D69">
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D51)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E69">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>ISBLANK(E51)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F69">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="10" stopIfTrue="1">
       <formula>ISBLANK(F51)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G69">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
       <formula>ISBLANK(G51)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:H69">
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>ISBLANK(H51)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10423,8 +10417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10436,7 +10430,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -10462,10 +10456,10 @@
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>16</v>
@@ -10488,10 +10482,10 @@
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>16</v>
@@ -10514,25 +10508,25 @@
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>21</v>
@@ -10540,22 +10534,22 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>20</v>
@@ -10566,25 +10560,25 @@
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>642</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>646</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>21</v>
@@ -10592,25 +10586,25 @@
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H7" s="12">
         <v>2.5</v>
@@ -10618,10 +10612,10 @@
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>16</v>
@@ -10644,10 +10638,10 @@
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>16</v>
@@ -10670,22 +10664,22 @@
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G10" s="12">
         <v>525415232</v>
@@ -10696,25 +10690,25 @@
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>21</v>
@@ -10722,10 +10716,10 @@
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>16</v>
@@ -10748,10 +10742,10 @@
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>530</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>534</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>16</v>
@@ -10774,10 +10768,10 @@
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>16</v>
@@ -10800,10 +10794,10 @@
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>16</v>
@@ -10826,10 +10820,10 @@
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>16</v>
@@ -10852,7 +10846,7 @@
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="12" t="s">
@@ -10876,10 +10870,10 @@
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>16</v>
@@ -10902,10 +10896,10 @@
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>16</v>
@@ -10928,10 +10922,10 @@
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>16</v>
@@ -10954,10 +10948,10 @@
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>16</v>
@@ -10980,10 +10974,10 @@
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>16</v>
@@ -11006,10 +11000,10 @@
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>16</v>
@@ -11032,10 +11026,10 @@
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>16</v>
@@ -11058,10 +11052,10 @@
     </row>
     <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>16</v>
@@ -11084,10 +11078,10 @@
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>16</v>
@@ -11110,10 +11104,10 @@
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>16</v>
@@ -11136,10 +11130,10 @@
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>16</v>
@@ -11162,10 +11156,10 @@
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>16</v>
@@ -11188,10 +11182,10 @@
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>16</v>
@@ -11214,10 +11208,10 @@
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>16</v>
@@ -11240,10 +11234,10 @@
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>16</v>
@@ -11266,10 +11260,10 @@
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>16</v>
@@ -11292,10 +11286,10 @@
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>16</v>
@@ -11318,10 +11312,10 @@
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>16</v>
@@ -11344,10 +11338,10 @@
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>16</v>
@@ -11370,10 +11364,10 @@
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>16</v>
@@ -11396,10 +11390,10 @@
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>16</v>
@@ -11422,10 +11416,10 @@
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>16</v>
@@ -11448,10 +11442,10 @@
     </row>
     <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>16</v>
@@ -11474,10 +11468,10 @@
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>16</v>
@@ -11500,10 +11494,10 @@
     </row>
     <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>16</v>
@@ -11526,10 +11520,10 @@
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>16</v>
@@ -11552,10 +11546,10 @@
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>16</v>
@@ -11578,10 +11572,10 @@
     </row>
     <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>16</v>
@@ -11604,10 +11598,10 @@
     </row>
     <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>16</v>
@@ -11630,10 +11624,10 @@
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>16</v>
@@ -11656,10 +11650,10 @@
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>16</v>
@@ -11682,10 +11676,10 @@
     </row>
     <row r="49" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>16</v>
@@ -11708,10 +11702,10 @@
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>16</v>
@@ -11734,10 +11728,10 @@
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>16</v>
@@ -11760,10 +11754,10 @@
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>16</v>
@@ -11786,10 +11780,10 @@
     </row>
     <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>16</v>
@@ -11812,10 +11806,10 @@
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>16</v>
@@ -11838,10 +11832,10 @@
     </row>
     <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>16</v>
@@ -11864,10 +11858,10 @@
     </row>
     <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>16</v>
@@ -11890,10 +11884,10 @@
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>16</v>
@@ -11916,10 +11910,10 @@
     </row>
     <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>16</v>
@@ -11942,10 +11936,10 @@
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>16</v>
@@ -11968,10 +11962,10 @@
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>16</v>
@@ -11994,10 +11988,10 @@
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>16</v>
@@ -12020,10 +12014,10 @@
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>16</v>
@@ -12046,10 +12040,10 @@
     </row>
     <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>16</v>
@@ -12072,10 +12066,10 @@
     </row>
     <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>16</v>
@@ -12098,10 +12092,10 @@
     </row>
     <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>16</v>
@@ -12124,10 +12118,10 @@
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>16</v>
@@ -12150,10 +12144,10 @@
     </row>
     <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>16</v>
@@ -12176,10 +12170,10 @@
     </row>
     <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>16</v>
@@ -12202,10 +12196,10 @@
     </row>
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>16</v>
@@ -12228,10 +12222,10 @@
     </row>
     <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>16</v>
@@ -12254,10 +12248,10 @@
     </row>
     <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>16</v>
@@ -12280,10 +12274,10 @@
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>16</v>
@@ -12306,10 +12300,10 @@
     </row>
     <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>16</v>
@@ -12332,82 +12326,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C10 C12:C73">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D10 D12:D73">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E73">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="price">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="price">
       <formula>NOT(ISERROR(SEARCH("price",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F73">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="location">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="location">
       <formula>NOT(ISERROR(SEARCH("location",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G73">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="phone_number">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="phone_number">
       <formula>NOT(ISERROR(SEARCH("phone_number",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H73">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="rooms">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="rooms">
       <formula>NOT(ISERROR(SEARCH("rooms",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C10 C12:C73">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>ISBLANK(C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D10 D12:D73">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>ISBLANK(D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E73">
-    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
       <formula>ISBLANK(E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F73">
-    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
       <formula>ISBLANK(F1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G73">
-    <cfRule type="expression" dxfId="5" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
       <formula>ISBLANK(G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H73">
-    <cfRule type="expression" dxfId="4" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
       <formula>ISBLANK(H1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="start_date">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="start_date">
       <formula>NOT(ISERROR(SEARCH("start_date",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="end_date">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="end_date">
       <formula>NOT(ISERROR(SEARCH("end_date",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>ISBLANK(C11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>ISBLANK(D11)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avishaya\PycharmProjects\traveliz\data_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D44A3-1C47-4B9F-B48C-06A9A2EE4893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD834ED-439C-440C-889C-99874FD1C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="facebook" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="660">
   <si>
     <t>Post_id</t>
   </si>
@@ -3337,6 +3337,15 @@
   </si>
   <si>
     <t>3 s</t>
+  </si>
+  <si>
+    <t>18.12.2021</t>
+  </si>
+  <si>
+    <t>6.12.2021</t>
+  </si>
+  <si>
+    <t>5.12.2021</t>
   </si>
 </sst>
 </file>
@@ -4630,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6001,10 +6010,10 @@
         <v>190</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>16</v>
+        <v>659</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>17</v>
+        <v>658</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>18</v>
@@ -6394,7 +6403,7 @@
         <v>134</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>80</v>
+        <v>657</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>18</v>
@@ -10423,8 +10432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avishaya\PycharmProjects\traveliz\data_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD14E9-857C-48E9-BF7E-9007E2F98DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9F333-8F10-4A90-83BA-384A4963FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-3795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="658">
   <si>
     <t>Post_id</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>300 d</t>
-  </si>
-  <si>
-    <t>עמק החולה</t>
   </si>
   <si>
     <t>862572704455602</t>
@@ -279,9 +276,6 @@
   </si>
   <si>
     <t>3300 m</t>
-  </si>
-  <si>
-    <t>חיפה?</t>
   </si>
   <si>
     <t>1505107356514134</t>
@@ -763,9 +757,6 @@
     <t>3600 m</t>
   </si>
   <si>
-    <t>533331723, 545688581</t>
-  </si>
-  <si>
     <t>4596693983771784</t>
   </si>
   <si>
@@ -939,9 +930,6 @@
 יציאה ישירות מהבית לואדי עם נוף מטריף
 מרחק הליכה ממרכז טבעון
 למתענינים בבקשה לפנות רק למספר זה רות-0545510966</t>
-  </si>
-  <si>
-    <t>קרית טבעון</t>
   </si>
   <si>
     <t>4732040043512816</t>
@@ -3334,19 +3322,25 @@
     <t>500 3</t>
   </si>
   <si>
+    <t>1700 4</t>
+  </si>
+  <si>
+    <t>1400 4, 490 d</t>
+  </si>
+  <si>
     <t>600 2, 350 d</t>
   </si>
   <si>
-    <t>425 4</t>
-  </si>
-  <si>
-    <t>1700 4, 490 d</t>
-  </si>
-  <si>
     <t>1000 7</t>
   </si>
   <si>
     <t>2400 16</t>
+  </si>
+  <si>
+    <t>533331723, 545686561</t>
+  </si>
+  <si>
+    <t>אמירים</t>
   </si>
 </sst>
 </file>
@@ -4640,8 +4634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4795,7 +4789,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>31</v>
@@ -4821,7 +4815,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>31</v>
@@ -4850,7 +4844,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>20</v>
@@ -4861,22 +4855,22 @@
     </row>
     <row r="9" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>657</v>
       </c>
       <c r="G9" s="5">
         <v>524465203</v>
@@ -4887,25 +4881,25 @@
     </row>
     <row r="10" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>21</v>
@@ -4913,19 +4907,19 @@
     </row>
     <row r="11" spans="1:8" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>26</v>
@@ -4939,22 +4933,22 @@
     </row>
     <row r="12" spans="1:8" ht="175.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="G12" s="5">
         <v>503847930</v>
@@ -4965,22 +4959,22 @@
     </row>
     <row r="13" spans="1:8" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="G13" s="5">
         <v>535503661</v>
@@ -4991,19 +4985,19 @@
     </row>
     <row r="14" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>26</v>
@@ -5017,10 +5011,10 @@
     </row>
     <row r="15" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>16</v>
@@ -5043,22 +5037,22 @@
     </row>
     <row r="16" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>20</v>
@@ -5069,22 +5063,22 @@
     </row>
     <row r="17" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>20</v>
@@ -5095,22 +5089,22 @@
     </row>
     <row r="18" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="G18" s="5">
         <v>543286986</v>
@@ -5121,10 +5115,10 @@
     </row>
     <row r="19" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>16</v>
@@ -5147,22 +5141,22 @@
     </row>
     <row r="20" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="G20" s="5">
         <v>555613650</v>
@@ -5173,19 +5167,19 @@
     </row>
     <row r="21" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>26</v>
@@ -5199,22 +5193,22 @@
     </row>
     <row r="22" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="D22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>20</v>
@@ -5225,22 +5219,22 @@
     </row>
     <row r="23" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>20</v>
@@ -5251,19 +5245,19 @@
     </row>
     <row r="24" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>26</v>
@@ -5277,19 +5271,19 @@
     </row>
     <row r="25" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>26</v>
@@ -5298,21 +5292,21 @@
         <v>20</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -5329,22 +5323,22 @@
     </row>
     <row r="27" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="G27" s="5">
         <v>537295478</v>
@@ -5355,22 +5349,22 @@
     </row>
     <row r="28" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="G28" s="5">
         <v>534301118</v>
@@ -5381,16 +5375,16 @@
     </row>
     <row r="29" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>18</v>
@@ -5407,10 +5401,10 @@
     </row>
     <row r="30" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>10</v>
@@ -5422,7 +5416,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>20</v>
@@ -5433,16 +5427,16 @@
     </row>
     <row r="31" spans="1:8" ht="403.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>18</v>
@@ -5459,20 +5453,20 @@
     </row>
     <row r="32" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="F32" s="5" t="s">
         <v>19</v>
       </c>
@@ -5480,27 +5474,27 @@
         <v>20</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="G33" s="5">
         <v>528316179</v>
@@ -5511,22 +5505,22 @@
     </row>
     <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="E34" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>20</v>
@@ -5535,24 +5529,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="F35" s="5" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>20</v>
@@ -5563,10 +5557,10 @@
     </row>
     <row r="36" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>16</v>
@@ -5575,7 +5569,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>26</v>
@@ -5589,10 +5583,10 @@
     </row>
     <row r="37" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>16</v>
@@ -5615,16 +5609,16 @@
     </row>
     <row r="38" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>18</v>
@@ -5641,25 +5635,25 @@
     </row>
     <row r="39" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="G39" s="5">
-        <v>58448876</v>
+        <v>584488876</v>
       </c>
       <c r="H39" s="5">
         <v>4</v>
@@ -5667,19 +5661,19 @@
     </row>
     <row r="40" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="E40" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>26</v>
@@ -5693,10 +5687,10 @@
     </row>
     <row r="41" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>16</v>
@@ -5719,10 +5713,10 @@
     </row>
     <row r="42" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>16</v>
@@ -5745,22 +5739,22 @@
     </row>
     <row r="43" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>20</v>
@@ -5771,25 +5765,25 @@
     </row>
     <row r="44" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>156</v>
+        <v>656</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>21</v>
@@ -5797,19 +5791,19 @@
     </row>
     <row r="45" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="E45" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>31</v>
@@ -5823,16 +5817,16 @@
     </row>
     <row r="46" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>18</v>
@@ -5844,15 +5838,15 @@
         <v>20</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>16</v>
@@ -5864,7 +5858,7 @@
         <v>18</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>20</v>
@@ -5875,10 +5869,10 @@
     </row>
     <row r="48" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>16</v>
@@ -5890,7 +5884,7 @@
         <v>18</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>20</v>
@@ -5901,10 +5895,10 @@
     </row>
     <row r="49" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>16</v>
@@ -5913,10 +5907,10 @@
         <v>17</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G49" s="5">
         <v>525543759</v>
@@ -5927,19 +5921,19 @@
     </row>
     <row r="50" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>31</v>
@@ -5953,16 +5947,16 @@
     </row>
     <row r="51" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>18</v>
@@ -5979,10 +5973,10 @@
     </row>
     <row r="52" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>16</v>
@@ -6005,16 +5999,16 @@
     </row>
     <row r="53" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>18</v>
@@ -6031,19 +6025,19 @@
     </row>
     <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>13</v>
@@ -6055,12 +6049,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>16</v>
@@ -6069,7 +6063,7 @@
         <v>17</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>13</v>
@@ -6083,10 +6077,10 @@
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>16</v>
@@ -6109,10 +6103,10 @@
     </row>
     <row r="57" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>16</v>
@@ -6135,13 +6129,13 @@
     </row>
     <row r="58" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>11</v>
@@ -6159,12 +6153,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>16</v>
@@ -6176,7 +6170,7 @@
         <v>18</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="G59" s="5">
         <v>545510966</v>
@@ -6187,10 +6181,10 @@
     </row>
     <row r="60" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>16</v>
@@ -6202,7 +6196,7 @@
         <v>18</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G60" s="5">
         <v>503200148</v>
@@ -6213,10 +6207,10 @@
     </row>
     <row r="61" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>16</v>
@@ -6225,7 +6219,7 @@
         <v>17</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>26</v>
@@ -6239,10 +6233,10 @@
     </row>
     <row r="62" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>16</v>
@@ -6251,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>26</v>
@@ -6265,22 +6259,22 @@
     </row>
     <row r="63" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G63" s="5">
         <v>502290056</v>
@@ -6291,16 +6285,16 @@
     </row>
     <row r="64" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>18</v>
@@ -6317,16 +6311,16 @@
     </row>
     <row r="65" spans="1:8" ht="172.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>18</v>
@@ -6343,22 +6337,22 @@
     </row>
     <row r="66" spans="1:8" ht="304.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="F66" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>20</v>
@@ -6369,10 +6363,10 @@
     </row>
     <row r="67" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>16</v>
@@ -6381,7 +6375,7 @@
         <v>17</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>26</v>
@@ -6395,16 +6389,16 @@
     </row>
     <row r="68" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>18</v>
@@ -6421,10 +6415,10 @@
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>16</v>
@@ -6447,10 +6441,10 @@
     </row>
     <row r="70" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
@@ -6473,10 +6467,10 @@
     </row>
     <row r="71" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
@@ -6499,10 +6493,10 @@
     </row>
     <row r="72" spans="1:8" ht="400.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
@@ -6525,10 +6519,10 @@
     </row>
     <row r="73" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
@@ -6551,10 +6545,10 @@
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
@@ -6577,10 +6571,10 @@
     </row>
     <row r="75" spans="1:8" ht="319.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
@@ -6603,10 +6597,10 @@
     </row>
     <row r="76" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>16</v>
@@ -6629,10 +6623,10 @@
     </row>
     <row r="77" spans="1:8" ht="304.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>16</v>
@@ -6655,10 +6649,10 @@
     </row>
     <row r="78" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
@@ -6681,10 +6675,10 @@
     </row>
     <row r="79" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
@@ -6707,10 +6701,10 @@
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
@@ -6733,10 +6727,10 @@
     </row>
     <row r="81" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>16</v>
@@ -6759,10 +6753,10 @@
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
@@ -6785,10 +6779,10 @@
     </row>
     <row r="83" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
@@ -6811,10 +6805,10 @@
     </row>
     <row r="84" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
@@ -6837,10 +6831,10 @@
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -6863,10 +6857,10 @@
     </row>
     <row r="86" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
@@ -6889,10 +6883,10 @@
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
@@ -6915,10 +6909,10 @@
     </row>
     <row r="88" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
@@ -6941,10 +6935,10 @@
     </row>
     <row r="89" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>16</v>
@@ -6967,10 +6961,10 @@
     </row>
     <row r="90" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>16</v>
@@ -6993,10 +6987,10 @@
     </row>
     <row r="91" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
@@ -7019,10 +7013,10 @@
     </row>
     <row r="92" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
@@ -7045,10 +7039,10 @@
     </row>
     <row r="93" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
@@ -7071,10 +7065,10 @@
     </row>
     <row r="94" spans="1:8" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
@@ -7097,10 +7091,10 @@
     </row>
     <row r="95" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
@@ -7123,10 +7117,10 @@
     </row>
     <row r="96" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
@@ -7149,10 +7143,10 @@
     </row>
     <row r="97" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
@@ -7175,10 +7169,10 @@
     </row>
     <row r="98" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>16</v>
@@ -7201,10 +7195,10 @@
     </row>
     <row r="99" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
@@ -7227,10 +7221,10 @@
     </row>
     <row r="100" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
@@ -7253,10 +7247,10 @@
     </row>
     <row r="101" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>16</v>
@@ -7279,10 +7273,10 @@
     </row>
     <row r="102" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
@@ -7305,10 +7299,10 @@
     </row>
     <row r="103" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>16</v>
@@ -7331,10 +7325,10 @@
     </row>
     <row r="104" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
@@ -7357,10 +7351,10 @@
     </row>
     <row r="105" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
@@ -7383,10 +7377,10 @@
     </row>
     <row r="106" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
@@ -7409,10 +7403,10 @@
     </row>
     <row r="107" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
@@ -7435,10 +7429,10 @@
     </row>
     <row r="108" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
@@ -7461,10 +7455,10 @@
     </row>
     <row r="109" spans="1:8" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
@@ -7487,10 +7481,10 @@
     </row>
     <row r="110" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
@@ -7513,10 +7507,10 @@
     </row>
     <row r="111" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
@@ -7539,10 +7533,10 @@
     </row>
     <row r="112" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
@@ -7565,10 +7559,10 @@
     </row>
     <row r="113" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
@@ -7591,10 +7585,10 @@
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
@@ -7617,10 +7611,10 @@
     </row>
     <row r="115" spans="1:8" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>16</v>
@@ -7643,10 +7637,10 @@
     </row>
     <row r="116" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
@@ -7669,10 +7663,10 @@
     </row>
     <row r="117" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
@@ -7695,10 +7689,10 @@
     </row>
     <row r="118" spans="1:8" ht="175.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
@@ -7721,10 +7715,10 @@
     </row>
     <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
@@ -7747,10 +7741,10 @@
     </row>
     <row r="120" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
@@ -7773,10 +7767,10 @@
     </row>
     <row r="121" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
@@ -7799,10 +7793,10 @@
     </row>
     <row r="122" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
@@ -7825,10 +7819,10 @@
     </row>
     <row r="123" spans="1:8" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
@@ -7851,10 +7845,10 @@
     </row>
     <row r="124" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>16</v>
@@ -7877,10 +7871,10 @@
     </row>
     <row r="125" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
@@ -7903,10 +7897,10 @@
     </row>
     <row r="126" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
@@ -7929,10 +7923,10 @@
     </row>
     <row r="127" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>16</v>
@@ -7955,10 +7949,10 @@
     </row>
     <row r="128" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>16</v>
@@ -7981,10 +7975,10 @@
     </row>
     <row r="129" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
@@ -8007,10 +8001,10 @@
     </row>
     <row r="130" spans="1:8" ht="175.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>16</v>
@@ -8033,10 +8027,10 @@
     </row>
     <row r="131" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>16</v>
@@ -8059,10 +8053,10 @@
     </row>
     <row r="132" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>16</v>
@@ -8085,10 +8079,10 @@
     </row>
     <row r="133" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
@@ -8111,10 +8105,10 @@
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
@@ -8137,10 +8131,10 @@
     </row>
     <row r="135" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>16</v>
@@ -8163,10 +8157,10 @@
     </row>
     <row r="136" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>16</v>
@@ -8189,10 +8183,10 @@
     </row>
     <row r="137" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>16</v>
@@ -8215,10 +8209,10 @@
     </row>
     <row r="138" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>16</v>
@@ -8241,10 +8235,10 @@
     </row>
     <row r="139" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>16</v>
@@ -8267,10 +8261,10 @@
     </row>
     <row r="140" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>16</v>
@@ -8293,10 +8287,10 @@
     </row>
     <row r="141" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>16</v>
@@ -8319,10 +8313,10 @@
     </row>
     <row r="142" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>16</v>
@@ -8345,10 +8339,10 @@
     </row>
     <row r="143" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>16</v>
@@ -8371,10 +8365,10 @@
     </row>
     <row r="144" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>16</v>
@@ -8397,10 +8391,10 @@
     </row>
     <row r="145" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>16</v>
@@ -8423,10 +8417,10 @@
     </row>
     <row r="146" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>16</v>
@@ -8449,10 +8443,10 @@
     </row>
     <row r="147" spans="1:8" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>16</v>
@@ -8475,10 +8469,10 @@
     </row>
     <row r="148" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>16</v>
@@ -8501,10 +8495,10 @@
     </row>
     <row r="149" spans="1:8" ht="352.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>16</v>
@@ -8527,10 +8521,10 @@
     </row>
     <row r="150" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>16</v>
@@ -8553,10 +8547,10 @@
     </row>
     <row r="151" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>16</v>
@@ -8579,10 +8573,10 @@
     </row>
     <row r="152" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>16</v>
@@ -8605,10 +8599,10 @@
     </row>
     <row r="153" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>16</v>
@@ -8631,10 +8625,10 @@
     </row>
     <row r="154" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>16</v>
@@ -8657,10 +8651,10 @@
     </row>
     <row r="155" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>16</v>
@@ -8683,10 +8677,10 @@
     </row>
     <row r="156" spans="1:8" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>16</v>
@@ -8709,10 +8703,10 @@
     </row>
     <row r="157" spans="1:8" ht="400.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>16</v>
@@ -8735,10 +8729,10 @@
     </row>
     <row r="158" spans="1:8" ht="175.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>16</v>
@@ -8761,10 +8755,10 @@
     </row>
     <row r="159" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>16</v>
@@ -8787,10 +8781,10 @@
     </row>
     <row r="160" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>16</v>
@@ -8813,7 +8807,7 @@
     </row>
     <row r="161" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="2" t="s">
@@ -8837,10 +8831,10 @@
     </row>
     <row r="162" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>16</v>
@@ -8863,10 +8857,10 @@
     </row>
     <row r="163" spans="1:8" ht="319.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>16</v>
@@ -8889,7 +8883,7 @@
     </row>
     <row r="164" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="2" t="s">
@@ -8913,10 +8907,10 @@
     </row>
     <row r="165" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>16</v>
@@ -8939,10 +8933,10 @@
     </row>
     <row r="166" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>16</v>
@@ -8965,10 +8959,10 @@
     </row>
     <row r="167" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>16</v>
@@ -8991,10 +8985,10 @@
     </row>
     <row r="168" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>16</v>
@@ -9017,10 +9011,10 @@
     </row>
     <row r="169" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>16</v>
@@ -9043,10 +9037,10 @@
     </row>
     <row r="170" spans="1:8" ht="175.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>16</v>
@@ -9069,10 +9063,10 @@
     </row>
     <row r="171" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>16</v>
@@ -9095,10 +9089,10 @@
     </row>
     <row r="172" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>16</v>
@@ -9121,10 +9115,10 @@
     </row>
     <row r="173" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>16</v>
@@ -9147,10 +9141,10 @@
     </row>
     <row r="174" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>16</v>
@@ -9173,10 +9167,10 @@
     </row>
     <row r="175" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>16</v>
@@ -9199,10 +9193,10 @@
     </row>
     <row r="176" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>16</v>
@@ -9225,7 +9219,7 @@
     </row>
     <row r="177" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="2" t="s">
@@ -9249,10 +9243,10 @@
     </row>
     <row r="178" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>16</v>
@@ -9275,10 +9269,10 @@
     </row>
     <row r="179" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>16</v>
@@ -9301,10 +9295,10 @@
     </row>
     <row r="180" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>16</v>
@@ -9327,10 +9321,10 @@
     </row>
     <row r="181" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>16</v>
@@ -9353,10 +9347,10 @@
     </row>
     <row r="182" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>16</v>
@@ -9379,10 +9373,10 @@
     </row>
     <row r="183" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>16</v>
@@ -9405,10 +9399,10 @@
     </row>
     <row r="184" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>16</v>
@@ -9431,10 +9425,10 @@
     </row>
     <row r="185" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>16</v>
@@ -9457,10 +9451,10 @@
     </row>
     <row r="186" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>16</v>
@@ -9483,10 +9477,10 @@
     </row>
     <row r="187" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>16</v>
@@ -9509,10 +9503,10 @@
     </row>
     <row r="188" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>16</v>
@@ -9535,10 +9529,10 @@
     </row>
     <row r="189" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>16</v>
@@ -9561,10 +9555,10 @@
     </row>
     <row r="190" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>16</v>
@@ -9587,10 +9581,10 @@
     </row>
     <row r="191" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>16</v>
@@ -9613,10 +9607,10 @@
     </row>
     <row r="192" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>16</v>
@@ -9639,10 +9633,10 @@
     </row>
     <row r="193" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>16</v>
@@ -9665,10 +9659,10 @@
     </row>
     <row r="194" spans="1:8" ht="400.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>16</v>
@@ -9691,10 +9685,10 @@
     </row>
     <row r="195" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>16</v>
@@ -9717,10 +9711,10 @@
     </row>
     <row r="196" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>16</v>
@@ -9743,10 +9737,10 @@
     </row>
     <row r="197" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>16</v>
@@ -9769,10 +9763,10 @@
     </row>
     <row r="198" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>16</v>
@@ -9795,10 +9789,10 @@
     </row>
     <row r="199" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>16</v>
@@ -9821,10 +9815,10 @@
     </row>
     <row r="200" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>16</v>
@@ -9847,10 +9841,10 @@
     </row>
     <row r="201" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>16</v>
@@ -9873,10 +9867,10 @@
     </row>
     <row r="202" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>16</v>
@@ -9899,10 +9893,10 @@
     </row>
     <row r="203" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>16</v>
@@ -9925,10 +9919,10 @@
     </row>
     <row r="204" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>16</v>
@@ -9951,10 +9945,10 @@
     </row>
     <row r="205" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>16</v>
@@ -9977,10 +9971,10 @@
     </row>
     <row r="206" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>16</v>
@@ -10003,10 +9997,10 @@
     </row>
     <row r="207" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>16</v>
@@ -10029,10 +10023,10 @@
     </row>
     <row r="208" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>16</v>
@@ -10055,10 +10049,10 @@
     </row>
     <row r="209" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>16</v>
@@ -10081,10 +10075,10 @@
     </row>
     <row r="210" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>16</v>
@@ -10107,10 +10101,10 @@
     </row>
     <row r="211" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>16</v>
@@ -10133,10 +10127,10 @@
     </row>
     <row r="212" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>16</v>
@@ -10159,10 +10153,10 @@
     </row>
     <row r="213" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>16</v>
@@ -10185,10 +10179,10 @@
     </row>
     <row r="214" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>16</v>
@@ -10446,7 +10440,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -10472,10 +10466,10 @@
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>16</v>
@@ -10498,10 +10492,10 @@
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>16</v>
@@ -10524,25 +10518,25 @@
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>21</v>
@@ -10550,22 +10544,22 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>20</v>
@@ -10576,25 +10570,25 @@
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>631</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>635</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>21</v>
@@ -10602,25 +10596,25 @@
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H7" s="12">
         <v>2.5</v>
@@ -10628,10 +10622,10 @@
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>16</v>
@@ -10654,10 +10648,10 @@
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>16</v>
@@ -10680,22 +10674,22 @@
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G10" s="12">
         <v>525415232</v>
@@ -10706,25 +10700,25 @@
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>21</v>
@@ -10732,10 +10726,10 @@
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>16</v>
@@ -10758,10 +10752,10 @@
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>519</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>523</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>16</v>
@@ -10784,10 +10778,10 @@
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>16</v>
@@ -10810,10 +10804,10 @@
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>16</v>
@@ -10836,10 +10830,10 @@
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>16</v>
@@ -10862,7 +10856,7 @@
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="12" t="s">
@@ -10886,10 +10880,10 @@
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>16</v>
@@ -10912,10 +10906,10 @@
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>16</v>
@@ -10938,10 +10932,10 @@
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>16</v>
@@ -10964,10 +10958,10 @@
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>16</v>
@@ -10990,10 +10984,10 @@
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>16</v>
@@ -11016,10 +11010,10 @@
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>16</v>
@@ -11042,10 +11036,10 @@
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>16</v>
@@ -11068,10 +11062,10 @@
     </row>
     <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>16</v>
@@ -11094,10 +11088,10 @@
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>16</v>
@@ -11120,10 +11114,10 @@
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>16</v>
@@ -11146,10 +11140,10 @@
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>16</v>
@@ -11172,10 +11166,10 @@
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>16</v>
@@ -11198,10 +11192,10 @@
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>16</v>
@@ -11224,10 +11218,10 @@
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>16</v>
@@ -11250,10 +11244,10 @@
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>16</v>
@@ -11276,10 +11270,10 @@
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>16</v>
@@ -11302,10 +11296,10 @@
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>16</v>
@@ -11328,10 +11322,10 @@
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>16</v>
@@ -11354,10 +11348,10 @@
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>16</v>
@@ -11380,10 +11374,10 @@
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>16</v>
@@ -11406,10 +11400,10 @@
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>16</v>
@@ -11432,10 +11426,10 @@
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>16</v>
@@ -11458,10 +11452,10 @@
     </row>
     <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>16</v>
@@ -11484,10 +11478,10 @@
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>16</v>
@@ -11510,10 +11504,10 @@
     </row>
     <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>16</v>
@@ -11536,10 +11530,10 @@
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>16</v>
@@ -11562,10 +11556,10 @@
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>16</v>
@@ -11588,10 +11582,10 @@
     </row>
     <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>16</v>
@@ -11614,10 +11608,10 @@
     </row>
     <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>16</v>
@@ -11640,10 +11634,10 @@
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>16</v>
@@ -11666,10 +11660,10 @@
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>16</v>
@@ -11692,10 +11686,10 @@
     </row>
     <row r="49" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>16</v>
@@ -11718,10 +11712,10 @@
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>16</v>
@@ -11744,10 +11738,10 @@
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>16</v>
@@ -11770,10 +11764,10 @@
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>16</v>
@@ -11796,10 +11790,10 @@
     </row>
     <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>16</v>
@@ -11822,10 +11816,10 @@
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>16</v>
@@ -11848,10 +11842,10 @@
     </row>
     <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>16</v>
@@ -11874,10 +11868,10 @@
     </row>
     <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>16</v>
@@ -11900,10 +11894,10 @@
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>16</v>
@@ -11926,10 +11920,10 @@
     </row>
     <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>16</v>
@@ -11952,10 +11946,10 @@
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>16</v>
@@ -11978,10 +11972,10 @@
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>16</v>
@@ -12004,10 +11998,10 @@
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>16</v>
@@ -12030,10 +12024,10 @@
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>16</v>
@@ -12056,10 +12050,10 @@
     </row>
     <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>16</v>
@@ -12082,10 +12076,10 @@
     </row>
     <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>16</v>
@@ -12108,10 +12102,10 @@
     </row>
     <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>16</v>
@@ -12134,10 +12128,10 @@
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>16</v>
@@ -12160,10 +12154,10 @@
     </row>
     <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>16</v>
@@ -12186,10 +12180,10 @@
     </row>
     <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>16</v>
@@ -12212,10 +12206,10 @@
     </row>
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>16</v>
@@ -12238,10 +12232,10 @@
     </row>
     <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>16</v>
@@ -12264,10 +12258,10 @@
     </row>
     <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>16</v>
@@ -12290,10 +12284,10 @@
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>16</v>
@@ -12316,10 +12310,10 @@
     </row>
     <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>16</v>

--- a/data_utils/data_for_tagging.xlsx
+++ b/data_utils/data_for_tagging.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avishaya\PycharmProjects\traveliz\data_utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\PycharmProjects\traveliz\data_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9F333-8F10-4A90-83BA-384A4963FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D37360F-458B-4C9C-8398-E130A9879AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-3795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="facebook" sheetId="1" r:id="rId1"/>
     <sheet name="whatsapp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4634,18 +4633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -4723,7 +4722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
@@ -4931,7 +4930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="175.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
@@ -4983,7 +4982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>56</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>60</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>71</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>76</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>78</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>81</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>85</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>90</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>93</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>96</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>99</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>102</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>105</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>108</v>
       </c>
@@ -5399,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>111</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="403.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="403.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>114</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>116</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>119</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>124</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="180" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>129</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>132</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>134</v>
       </c>
@@ -5607,7 +5606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>136</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>140</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>143</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>146</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>76</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>148</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>151</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>154</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>158</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>18</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>20</v>
@@ -5841,7 +5840,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>161</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>164</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>165</v>
       </c>
@@ -5919,7 +5918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>168</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>170</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>174</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>176</v>
       </c>
@@ -6023,7 +6022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>178</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="285" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>182</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>184</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>186</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>188</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="150" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>191</v>
       </c>
@@ -6179,7 +6178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>193</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>196</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>199</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>202</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>205</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="172.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>208</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="304.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="304.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>211</v>
       </c>
@@ -6361,7 +6360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>216</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>217</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>219</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>221</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>223</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="400.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="400.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>225</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>227</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>229</v>
       </c>
@@ -6569,7 +6568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="319.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>233</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="304.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="304.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>235</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>237</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -6699,7 +6698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>241</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>243</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>247</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>249</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>251</v>
       </c>
@@ -6855,7 +6854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>253</v>
       </c>
@@ -6881,7 +6880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>255</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>257</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>259</v>
       </c>
@@ -6959,7 +6958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>261</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>263</v>
       </c>
@@ -7011,7 +7010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>265</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>267</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>269</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>271</v>
       </c>
@@ -7115,7 +7114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>273</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>275</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>277</v>
       </c>
@@ -7193,7 +7192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>279</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>281</v>
       </c>
@@ -7245,7 +7244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>283</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>285</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>287</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>289</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>291</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>293</v>
       </c>
@@ -7401,7 +7400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>295</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>297</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>299</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>301</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>303</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>305</v>
       </c>
@@ -7557,7 +7556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>307</v>
       </c>
@@ -7583,7 +7582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>309</v>
       </c>
@@ -7609,7 +7608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>311</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>312</v>
       </c>
@@ -7661,7 +7660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>314</v>
       </c>
@@ -7687,7 +7686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="175.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>315</v>
       </c>
@@ -7713,7 +7712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>317</v>
       </c>
@@ -7739,7 +7738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>319</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>320</v>
       </c>
@@ -7791,7 +7790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>322</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>324</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>326</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>328</v>
       </c>
@@ -7895,7 +7894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>330</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>332</v>
       </c>
@@ -7947,7 +7946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>334</v>
       </c>
@@ -7973,7 +7972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>336</v>
       </c>
@@ -7999,7 +7998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="175.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>338</v>
       </c>
@@ -8025,7 +8024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>339</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>341</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>343</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>344</v>
       </c>
@@ -8129,7 +8128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>346</v>
       </c>
@@ -8155,7 +8154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>348</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="336" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>349</v>
       </c>
@@ -8207,7 +8206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>351</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>353</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>355</v>
       </c>
@@ -8285,7 +8284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>357</v>
       </c>
@@ -8311,7 +8310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>359</v>
       </c>
@@ -8337,7 +8336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>361</v>
       </c>
@@ -8363,7 +8362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>363</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>365</v>
       </c>
@@ -8415,7 +8414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>367</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="271.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>369</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>371</v>
       </c>
@@ -8493,7 +8492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="352.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="352.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>373</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>375</v>
       </c>
@@ -8545,7 +8544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>376</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>378</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>380</v>
       </c>
@@ -8623,7 +8622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="208.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>382</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>384</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>386</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="400.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="400.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>388</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="175.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>390</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>392</v>
       </c>
@@ -8779,7 +8778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>394</v>
       </c>
@@ -8805,7 +8804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>396</v>
       </c>
@@ -8829,7 +8828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>397</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="319.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>399</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>401</v>
       </c>
@@ -8905,7 +8904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>402</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>404</v>
       </c>
@@ -8957,7 +8956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>406</v>
       </c>
@@ -8983,7 +8982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>408</v>
       </c>
@@ -9009,7 +9008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>410</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="175.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>412</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>413</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>415</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>417</v>
       </c>
@@ -9139,7 +9138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>419</v>
       </c>
@@ -9165,7 +9164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>421</v>
       </c>
@@ -9191,7 +9190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>423</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>425</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>426</v>
       </c>
@@ -9267,7 +9266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>428</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>430</v>
       </c>
@@ -9319,7 +9318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>432</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>434</v>
       </c>
@@ -9371,7 +9370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>435</v>
       </c>
@@ -9397,7 +9396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>437</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>439</v>
       </c>
@@ -9449,7 +9448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>441</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>443</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="384" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>445</v>
       </c>
@@ -9527,7 +9526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>447</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>449</v>
       </c>
@@ -9579,7 +9578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>450</v>
       </c>
@@ -9605,7 +9604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>452</v>
       </c>
@@ -9631,7 +9630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>454</v>
       </c>
@@ -9657,7 +9656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="400.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="400.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>456</v>
       </c>
@@ -9683,7 +9682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>458</v>
       </c>
@@ -9709,7 +9708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>460</v>
       </c>
@@ -9735,7 +9734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>462</v>
       </c>
@@ -9761,7 +9760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>464</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>466</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>468</v>
       </c>
@@ -9839,7 +9838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>470</v>
       </c>
@@ -9865,7 +9864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>472</v>
       </c>
@@ -9891,7 +9890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>474</v>
       </c>
@@ -9917,7 +9916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>476</v>
       </c>
@@ -9943,7 +9942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>478</v>
       </c>
@@ -9969,7 +9968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>480</v>
       </c>
@@ -9995,7 +9994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>481</v>
       </c>
@@ -10021,7 +10020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>482</v>
       </c>
@@ -10047,7 +10046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>484</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>486</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>488</v>
       </c>
@@ -10125,7 +10124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>490</v>
       </c>
@@ -10151,7 +10150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>492</v>
       </c>
@@ -10177,7 +10176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>494</v>
       </c>
@@ -10431,14 +10430,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>496</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>497</v>
       </c>
@@ -10490,7 +10489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>499</v>
       </c>
@@ -10516,7 +10515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>501</v>
       </c>
@@ -10542,7 +10541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>503</v>
       </c>
@@ -10568,7 +10567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>505</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>507</v>
       </c>
@@ -10620,7 +10619,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>509</v>
       </c>
@@ -10646,7 +10645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>511</v>
       </c>
@@ -10672,7 +10671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>513</v>
       </c>
@@ -10698,7 +10697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>515</v>
       </c>
@@ -10724,7 +10723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>517</v>
       </c>
@@ -10750,7 +10749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>515</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>520</v>
       </c>
@@ -10802,7 +10801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>522</v>
       </c>
@@ -10828,7 +10827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>522</v>
       </c>
@@ -10854,7 +10853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>520</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>525</v>
       </c>
@@ -10904,7 +10903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>527</v>
       </c>
@@ -10930,7 +10929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>529</v>
       </c>
@@ -10956,7 +10955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>531</v>
       </c>
@@ -10982,7 +10981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>533</v>
       </c>
@@ -11008,7 +11007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>535</v>
       </c>
@@ -11034,7 +11033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>536</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>538</v>
       </c>
@@ -11086,7 +11085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>540</v>
       </c>
@@ -11112,7 +11111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>542</v>
       </c>
@@ -11138,7 +11137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>544</v>
       </c>
@@ -11164,7 +11163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>546</v>
       </c>
@@ -11190,7 +11189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>547</v>
       </c>
@@ -11216,7 +11215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>549</v>
       </c>
@@ -11242,7 +11241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>551</v>
       </c>
@@ -11268,7 +11267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>553</v>
       </c>
@@ -11294,7 +11293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>555</v>
       </c>
@@ -11320,7 +11319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>557</v>
       </c>
@@ -11346,7 +11345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>559</v>
       </c>
@@ -11372,7 +11371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>561</v>
       </c>
@@ -11398,7 +11397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>563</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>565</v>
       </c>
@@ -11450,7 +11449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>567</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>569</v>
       </c>
@@ -11502,7 +11501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>571</v>
       </c>
@@ -11528,7 +11527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>571</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>574</v>
       </c>
@@ -11580,7 +11579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>575</v>
       </c>
@@ -11606,7 +11605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>577</v>
       </c>
@@ -11632,7 +11631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>579</v>
       </c>
@@ -11658,7 +11657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>581</v>
       </c>
@@ -11684,7 +11683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>583</v>
       </c>
@@ -11710,7 +11709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>585</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>587</v>
       </c>
@@ -11762,7 +11761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>589</v>
       </c>
@@ -11788,7 +11787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>591</v>
       </c>
@@ -11814,7 +11813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>592</v>
       </c>
@@ -11840,7 +11839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>592</v>
       </c>
@@ -11866,7 +11865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>595</v>
       </c>
@@ -11892,7 +11891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>597</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>599</v>
       </c>
@@ -11944,7 +11943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>601</v>
       </c>
@@ -11970,7 +11969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>603</v>
       </c>
@@ -11996,7 +11995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>605</v>
       </c>
@@ -12022,7 +12021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>607</v>
       </c>
@@ -12048,7 +12047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>609</v>
       </c>
@@ -12074,7 +12073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>611</v>
       </c>
@@ -12100,7 +12099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>613</v>
       </c>
@@ -12126,7 +12125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>613</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>614</v>
       </c>
@@ -12178,7 +12177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>615</v>
       </c>
@@ -12204,7 +12203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>617</v>
       </c>
@@ -12230,7 +12229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>619</v>
       </c>
@@ -12256,7 +12255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>621</v>
       </c>
@@ -12282,7 +12281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>615</v>
       </c>
@@ -12308,7 +12307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>624</v>
       </c>
